--- a/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
+++ b/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="9300" tabRatio="797" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="797" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="必读！合作条约" sheetId="18" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="724">
   <si>
     <t>代表卡牌信息，分为单人模式卡牌和多人模式卡牌
 卡牌ID的生成方式 模式（单人：1或多人：2+系列（00~99）+位阶（领袖0，金1，银2，铜3）+第几张牌（000~999））
@@ -753,6 +753,18 @@
   </si>
   <si>
     <t>神社（支线2）</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-9</t>
   </si>
   <si>
     <t>Ch</t>
@@ -2286,10 +2298,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
   </numFmts>
   <fonts count="29">
@@ -2365,22 +2377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2390,16 +2386,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2417,15 +2428,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2440,11 +2444,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2456,8 +2459,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2471,39 +2514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2668,7 +2680,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2680,7 +2806,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2692,31 +2824,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2728,109 +2842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2965,9 +2977,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2990,8 +3019,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3001,6 +3030,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3020,43 +3064,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3068,10 +3080,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3080,137 +3092,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="49" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3492,9 +3504,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3864,12 +3873,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="60.775" customWidth="1"/>
+    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:2">
+    <row r="1" ht="72" spans="1:2">
       <c r="A1" s="91"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -3887,11 +3896,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:2">
+    <row r="9" ht="43.2" spans="1:2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3914,24 +3923,24 @@
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="11.8916666666667" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21.425" style="14" customWidth="1"/>
-    <col min="5" max="5" width="25.8666666666667" style="31" customWidth="1"/>
-    <col min="6" max="6" width="35.2" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.4259259259259" style="14" customWidth="1"/>
+    <col min="5" max="5" width="25.8703703703704" style="31" customWidth="1"/>
+    <col min="6" max="6" width="35.2037037037037" style="31" customWidth="1"/>
     <col min="7" max="7" width="9" style="72"/>
-    <col min="8" max="8" width="9.65833333333333" style="72" customWidth="1"/>
+    <col min="8" max="8" width="9.65740740740741" style="72" customWidth="1"/>
     <col min="9" max="9" width="9" style="72"/>
-    <col min="10" max="10" width="12.5333333333333" style="72" customWidth="1"/>
+    <col min="10" max="10" width="12.537037037037" style="72" customWidth="1"/>
     <col min="11" max="11" width="9" style="72"/>
     <col min="12" max="12" width="13.1666666666667" style="72" customWidth="1"/>
-    <col min="13" max="13" width="10.8833333333333" style="14" customWidth="1"/>
-    <col min="14" max="14" width="17.925" style="72" customWidth="1"/>
-    <col min="15" max="15" width="13.1916666666667" style="14" customWidth="1"/>
-    <col min="16" max="16" width="15.5583333333333" style="73" customWidth="1"/>
-    <col min="17" max="17" width="20.8916666666667" style="74" customWidth="1"/>
+    <col min="13" max="13" width="10.8796296296296" style="14" customWidth="1"/>
+    <col min="14" max="14" width="17.9259259259259" style="72" customWidth="1"/>
+    <col min="15" max="15" width="13.1944444444444" style="14" customWidth="1"/>
+    <col min="16" max="16" width="15.5555555555556" style="73" customWidth="1"/>
+    <col min="17" max="17" width="20.8888888888889" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3987,7 +3996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="40.5" spans="1:17">
+    <row r="2" customFormat="1" ht="43.2" spans="1:17">
       <c r="A2" s="78">
         <v>1</v>
       </c>
@@ -4038,7 +4047,7 @@
       </c>
       <c r="Q2" s="90"/>
     </row>
-    <row r="3" customFormat="1" ht="27" spans="1:17">
+    <row r="3" customFormat="1" ht="28.8" spans="1:17">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -4134,7 +4143,7 @@
       </c>
       <c r="Q4" s="90"/>
     </row>
-    <row r="5" customFormat="1" ht="27" spans="1:17">
+    <row r="5" customFormat="1" ht="28.8" spans="1:17">
       <c r="A5" s="78">
         <v>3</v>
       </c>
@@ -4181,7 +4190,7 @@
       </c>
       <c r="Q5" s="90"/>
     </row>
-    <row r="6" customFormat="1" ht="40.5" spans="1:17">
+    <row r="6" customFormat="1" ht="43.2" spans="1:17">
       <c r="A6" s="78">
         <v>4</v>
       </c>
@@ -4371,7 +4380,7 @@
       </c>
       <c r="Q9" s="90"/>
     </row>
-    <row r="10" customFormat="1" ht="27" spans="1:17">
+    <row r="10" customFormat="1" ht="28.8" spans="1:17">
       <c r="A10" s="78">
         <v>4</v>
       </c>
@@ -4606,7 +4615,7 @@
       </c>
       <c r="Q14" s="90"/>
     </row>
-    <row r="15" customFormat="1" ht="27" spans="1:17">
+    <row r="15" customFormat="1" ht="28.8" spans="1:17">
       <c r="A15" s="78">
         <v>3</v>
       </c>
@@ -4653,7 +4662,7 @@
       </c>
       <c r="Q15" s="90"/>
     </row>
-    <row r="16" customFormat="1" ht="40.5" spans="1:17">
+    <row r="16" customFormat="1" ht="43.2" spans="1:17">
       <c r="A16" s="78">
         <v>4</v>
       </c>
@@ -5355,23 +5364,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="I2:I1048576">
-      <formula1>"中立,道教,佛教,科学,神道教"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N2:N1048576">
+      <formula1>"正体,衍生"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J6 J11 J12 J17 J2:J5 J7:J10 J13:J16 J18:J1048576">
       <formula1>"领袖,金,银,铜"</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="P22 P23 P24 P25 P26 P29 P30 P31 P41 P1048576 P2:P3 P4:P7 P8:P11 P12:P14 P15:P16 P17:P21 P27:P28 P32:P35 P36:P40 P42:P53 P54:P70 P71:P1048566 P1048567:P1048569 P1048570:P1048575">
+      <formula1>IF(TRUE,OR(P2=0,P2=1),"Checkbox")</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="H2:H1048576">
       <formula1>"单位,特殊"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="P22 P23 P24 P25 P26 P29 P30 P31 P41 P1048576 P2:P3 P4:P7 P8:P11 P12:P14 P15:P16 P17:P21 P27:P28 P32:P35 P36:P40 P42:P53 P54:P70 P71:P1048566 P1048567:P1048569 P1048570:P1048575">
-      <formula1>IF(TRUE,OR(P2=0,P2=1),"Checkbox")</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N2:N1048576">
-      <formula1>"正体,衍生"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K2:K1048576">
       <formula1>"水,火,风,土,任意"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="I2:I1048576">
+      <formula1>"中立,道教,佛教,科学,神道教"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L2:L1048576">
       <formula1>"我方,敌方"</formula1>
@@ -5396,25 +5405,25 @@
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="8.13333333333333" style="39" customWidth="1"/>
-    <col min="3" max="4" width="25.35" style="38" customWidth="1"/>
-    <col min="5" max="5" width="34.45" style="40" customWidth="1"/>
-    <col min="6" max="6" width="34.45" style="38" customWidth="1"/>
-    <col min="7" max="7" width="34.775" style="41" customWidth="1"/>
-    <col min="8" max="8" width="37.5166666666667" style="38" customWidth="1"/>
-    <col min="9" max="9" width="13.7333333333333" style="40" customWidth="1"/>
-    <col min="10" max="10" width="9.65833333333333" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.12962962962963" style="39" customWidth="1"/>
+    <col min="3" max="4" width="25.3518518518519" style="38" customWidth="1"/>
+    <col min="5" max="5" width="34.4537037037037" style="40" customWidth="1"/>
+    <col min="6" max="6" width="34.4537037037037" style="38" customWidth="1"/>
+    <col min="7" max="7" width="34.7777777777778" style="41" customWidth="1"/>
+    <col min="8" max="8" width="37.5185185185185" style="38" customWidth="1"/>
+    <col min="9" max="9" width="13.7314814814815" style="40" customWidth="1"/>
+    <col min="10" max="10" width="9.65740740740741" style="38" customWidth="1"/>
     <col min="11" max="11" width="9" style="42"/>
-    <col min="12" max="12" width="12.5333333333333" style="43" customWidth="1"/>
+    <col min="12" max="12" width="12.537037037037" style="43" customWidth="1"/>
     <col min="13" max="13" width="9" style="38"/>
     <col min="14" max="14" width="13.1666666666667" style="38" customWidth="1"/>
-    <col min="15" max="15" width="10.8833333333333" style="38" customWidth="1"/>
-    <col min="16" max="16" width="17.925" style="38" customWidth="1"/>
-    <col min="17" max="17" width="15.5583333333333" style="44" customWidth="1"/>
-    <col min="18" max="18" width="20.8916666666667" style="45" customWidth="1"/>
+    <col min="15" max="15" width="10.8796296296296" style="38" customWidth="1"/>
+    <col min="16" max="16" width="17.9259259259259" style="38" customWidth="1"/>
+    <col min="17" max="17" width="15.5555555555556" style="44" customWidth="1"/>
+    <col min="18" max="18" width="20.8888888888889" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5473,7 +5482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:17">
+    <row r="2" ht="43.2" spans="1:17">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -5520,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:18">
+    <row r="3" ht="57.6" spans="1:18">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -5570,7 +5579,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:17">
+    <row r="4" ht="28.8" spans="1:17">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -5614,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:17">
+    <row r="5" ht="43.2" spans="1:17">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -5655,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:17">
+    <row r="6" ht="43.2" spans="1:17">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -5696,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:17">
+    <row r="7" ht="43.2" spans="1:17">
       <c r="A7" s="38">
         <v>1</v>
       </c>
@@ -5737,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="40.5" spans="1:17">
+    <row r="8" ht="43.2" spans="1:17">
       <c r="A8" s="38">
         <v>2</v>
       </c>
@@ -5778,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:17">
+    <row r="9" ht="43.2" spans="1:17">
       <c r="A9" s="38">
         <v>3</v>
       </c>
@@ -5819,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:17">
+    <row r="10" ht="43.2" spans="1:17">
       <c r="A10" s="38">
         <v>4</v>
       </c>
@@ -5907,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="1:17">
+    <row r="12" ht="28.8" spans="1:17">
       <c r="A12" s="38">
         <v>6</v>
       </c>
@@ -5951,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:17">
+    <row r="13" ht="28.8" spans="1:17">
       <c r="A13" s="38">
         <v>1</v>
       </c>
@@ -5992,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:17">
+    <row r="14" ht="28.8" spans="1:17">
       <c r="A14" s="38">
         <v>2</v>
       </c>
@@ -6036,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:17">
+    <row r="15" ht="28.8" spans="1:17">
       <c r="A15" s="38">
         <v>3</v>
       </c>
@@ -6077,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:17">
+    <row r="16" ht="43.2" spans="1:17">
       <c r="A16" s="38">
         <v>4</v>
       </c>
@@ -6179,7 +6188,7 @@
       <c r="Q18" s="66"/>
       <c r="R18" s="67"/>
     </row>
-    <row r="19" ht="40.5" spans="1:17">
+    <row r="19" ht="43.2" spans="1:17">
       <c r="A19" s="38">
         <v>1</v>
       </c>
@@ -6220,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="27" spans="1:17">
+    <row r="20" ht="28.8" spans="1:17">
       <c r="A20" s="38">
         <v>1</v>
       </c>
@@ -6261,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:17">
+    <row r="21" ht="43.2" spans="1:17">
       <c r="A21" s="38">
         <v>2</v>
       </c>
@@ -6384,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="27" spans="1:17">
+    <row r="24" ht="28.8" spans="1:17">
       <c r="A24" s="38">
         <v>1</v>
       </c>
@@ -6425,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="67.5" spans="1:17">
+    <row r="25" ht="72" spans="1:17">
       <c r="A25" s="38">
         <v>2</v>
       </c>
@@ -6466,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="27" spans="1:17">
+    <row r="26" ht="43.2" spans="1:17">
       <c r="A26" s="38">
         <v>3</v>
       </c>
@@ -6507,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="54" spans="1:17">
+    <row r="27" ht="57.6" spans="1:17">
       <c r="A27" s="38">
         <v>4</v>
       </c>
@@ -6548,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="27" spans="1:17">
+    <row r="28" ht="28.8" spans="1:17">
       <c r="A28" s="38">
         <v>5</v>
       </c>
@@ -6589,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="27" spans="1:17">
+    <row r="29" ht="28.8" spans="1:17">
       <c r="A29" s="38">
         <v>6</v>
       </c>
@@ -6759,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:17">
+    <row r="33" ht="28.8" spans="1:17">
       <c r="A33" s="38">
         <v>2</v>
       </c>
@@ -6926,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:17">
+    <row r="37" ht="28.8" spans="1:17">
       <c r="A37" s="38">
         <v>6</v>
       </c>
@@ -6967,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="1:17">
+    <row r="38" ht="28.8" spans="1:17">
       <c r="A38" s="38">
         <v>7</v>
       </c>
@@ -7028,7 +7037,7 @@
       <c r="Q39" s="68"/>
       <c r="R39" s="69"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" ht="28.8" spans="1:17">
       <c r="A40" s="38">
         <v>1</v>
       </c>
@@ -7069,7 +7078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" ht="67.5" spans="1:17">
+    <row r="41" ht="72" spans="1:17">
       <c r="A41" s="38">
         <v>2</v>
       </c>
@@ -7133,7 +7142,7 @@
       <c r="Q42" s="52"/>
       <c r="R42" s="53"/>
     </row>
-    <row r="43" ht="40.5" spans="1:17">
+    <row r="43" ht="43.2" spans="1:17">
       <c r="A43" s="38">
         <v>1</v>
       </c>
@@ -7177,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="27" spans="1:17">
+    <row r="44" ht="43.2" spans="1:17">
       <c r="A44" s="38">
         <v>1</v>
       </c>
@@ -7221,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:17">
+    <row r="45" ht="28.8" spans="1:17">
       <c r="A45" s="38">
         <v>1</v>
       </c>
@@ -7285,7 +7294,7 @@
       <c r="Q46" s="70"/>
       <c r="R46" s="71"/>
     </row>
-    <row r="47" ht="40.5" spans="1:17">
+    <row r="47" ht="43.2" spans="1:17">
       <c r="A47" s="38">
         <v>1</v>
       </c>
@@ -7338,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="40.5" spans="1:17">
+    <row r="48" ht="43.2" spans="1:17">
       <c r="A48" s="38">
         <v>1</v>
       </c>
@@ -7379,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="40.5" spans="1:17">
+    <row r="49" ht="43.2" spans="1:17">
       <c r="A49" s="38">
         <v>2</v>
       </c>
@@ -7420,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="27" spans="1:17">
+    <row r="50" ht="28.8" spans="1:17">
       <c r="A50" s="38">
         <v>3</v>
       </c>
@@ -7461,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="81" spans="1:17">
+    <row r="51" ht="86.4" spans="1:17">
       <c r="A51" s="38">
         <v>4</v>
       </c>
@@ -7502,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="27" spans="1:17">
+    <row r="52" ht="28.8" spans="1:17">
       <c r="A52" s="38">
         <v>1</v>
       </c>
@@ -7544,7 +7553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="27" spans="1:17">
+    <row r="53" ht="28.8" spans="1:17">
       <c r="A53" s="38">
         <v>2</v>
       </c>
@@ -7585,7 +7594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="27" spans="1:17">
+    <row r="54" ht="28.8" spans="1:17">
       <c r="A54" s="38">
         <v>3</v>
       </c>
@@ -7667,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="27" spans="1:17">
+    <row r="56" ht="28.8" spans="1:17">
       <c r="A56" s="38">
         <v>5</v>
       </c>
@@ -7711,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="27" spans="1:17">
+    <row r="57" ht="28.8" spans="1:17">
       <c r="A57" s="38">
         <v>6</v>
       </c>
@@ -7752,7 +7761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="81" spans="1:18">
+    <row r="58" ht="86.4" spans="1:18">
       <c r="A58" s="38">
         <v>1</v>
       </c>
@@ -7796,7 +7805,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" ht="81" spans="1:18">
+    <row r="59" ht="86.4" spans="1:18">
       <c r="A59" s="38">
         <v>2</v>
       </c>
@@ -7840,7 +7849,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" ht="40.5" spans="1:17">
+    <row r="60" ht="43.2" spans="1:17">
       <c r="A60" s="38">
         <v>3</v>
       </c>
@@ -7881,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" ht="40.5" spans="1:17">
+    <row r="61" ht="43.2" spans="1:17">
       <c r="A61" s="38">
         <v>4</v>
       </c>
@@ -7922,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="27" spans="1:17">
+    <row r="62" ht="28.8" spans="1:17">
       <c r="A62" s="38">
         <v>5</v>
       </c>
@@ -7963,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="40.5" spans="1:17">
+    <row r="63" ht="43.2" spans="1:17">
       <c r="A63" s="38">
         <v>6</v>
       </c>
@@ -8024,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="27" spans="1:17">
+    <row r="65" ht="28.8" spans="1:17">
       <c r="A65" s="38">
         <v>2</v>
       </c>
@@ -8049,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="27" spans="7:17">
+    <row r="67" ht="28.8" spans="7:17">
       <c r="G67" s="41" t="s">
         <v>220</v>
       </c>
@@ -8057,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="40.5" spans="1:17">
+    <row r="68" ht="43.2" spans="1:17">
       <c r="A68" s="38">
         <v>1</v>
       </c>
@@ -8096,14 +8105,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J30 J31 J32 J37 J38 J39 J40 J41 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J2:J17 J19:J29 J33:J36 J64:J68 J99:J1048576">
-      <formula1>"单位,特殊"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="Q15 Q16 Q17 Q37 Q38 Q39 Q40 Q41 Q43 Q44 Q45 Q46 Q47 Q48 Q49 Q50 Q51 Q52 Q53 Q54 Q55 Q56 Q57 Q58 Q59 Q60 Q61 Q62 Q63 Q2:Q3 Q4:Q7 Q8:Q11 Q12:Q14 Q19:Q25 Q26:Q33 Q34:Q36 Q64:Q65 Q66:Q68 Q99:Q1048576">
       <formula1>IF(TRUE,OR(Q2=0,Q2=1),"Checkbox")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L23 L30 L31 L32 L33 L37 L38 L39 L40 L41 L43 L44 L45 L46 L47 L48 L49 L50 L51 L57 L58 L63 L2:L17 L19:L22 L24:L29 L34:L36 L52:L53 L54:L56 L59:L62 L64:L68 L99:L1048576">
-      <formula1>"领袖,金,银,铜"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="M29 M30 M31 M37 M38 M39 M40 M41 M43 M44 M45 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M57 M58 M59 M60 M61 M62 M63 M2:M17 M19:M23 M24:M28 M32:M36 M64:M68 M99:M1048576">
+      <formula1>"水,火,风,土,任意"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K17 K30 K31 K37 K38 K39 K40 K41 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K2:K16 K19:K29 K32:K36 K64:K68 K99:K1048576">
       <formula1>"中立,道教,佛教,科学,神道教"</formula1>
@@ -8114,8 +8120,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="P30 P31 P37 P38 P39 P40 P41 P43 P44 P45 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P2:P17 P19:P29 P32:P36 P64:P68 P99:P1048576">
       <formula1>"正体,衍生"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="M29 M30 M31 M37 M38 M39 M40 M41 M43 M44 M45 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M57 M58 M59 M60 M61 M62 M63 M2:M17 M19:M23 M24:M28 M32:M36 M64:M68 M99:M1048576">
-      <formula1>"水,火,风,土,任意"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L23 L30 L31 L32 L33 L37 L38 L39 L40 L41 L43 L44 L45 L46 L47 L48 L49 L50 L51 L57 L58 L63 L2:L17 L19:L22 L24:L29 L34:L36 L52:L53 L54:L56 L59:L62 L64:L68 L99:L1048576">
+      <formula1>"领袖,金,银,铜"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J30 J31 J32 J37 J38 J39 J40 J41 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J2:J17 J19:J29 J33:J36 J64:J68 J99:J1048576">
+      <formula1>"单位,特殊"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8128,11 +8137,11 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="9" max="9" width="47.25" customWidth="1"/>
   </cols>
@@ -8180,11 +8189,37 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="12"/>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="12"/>
@@ -8208,12 +8243,12 @@
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.1083333333333" style="14" customWidth="1"/>
+    <col min="1" max="1" width="23.1111111111111" style="14" customWidth="1"/>
     <col min="2" max="3" width="42.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="17.1333333333333" style="14" customWidth="1"/>
-    <col min="5" max="6" width="33.1083333333333" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.1296296296296" style="14" customWidth="1"/>
+    <col min="5" max="6" width="33.1111111111111" style="14" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -8222,216 +8257,216 @@
         <v>11</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="35" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>241</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="35" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="35" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="35" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="35" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="37" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="35" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -8447,232 +8482,232 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="35" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="35" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="35" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="35" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>287</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>283</v>
       </c>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="35" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="35" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="35" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="35" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="35" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="35" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="35" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G24" s="35"/>
     </row>
@@ -8684,428 +8719,428 @@
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" ht="27" spans="1:5">
+    <row r="26" ht="28.8" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" ht="27" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" ht="28.8" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" ht="27" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" ht="28.8" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" ht="27" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" ht="28.8" spans="1:5">
       <c r="A33" s="14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" spans="1:5">
       <c r="A34" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" ht="67.5" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" ht="72" spans="1:5">
       <c r="A37" s="14" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" ht="67.5" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" ht="72" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="14" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="40" ht="54" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" ht="57.6" spans="1:5">
       <c r="A40" s="14" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="41" ht="27" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" ht="28.8" spans="1:5">
       <c r="A41" s="14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="14" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="14" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="14" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="14" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="47" ht="27" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" ht="28.8" spans="1:5">
       <c r="A47" s="14" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="14" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="49" ht="27" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" ht="28.8" spans="1:5">
       <c r="A49" s="14" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="50" ht="27" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" ht="28.8" spans="1:5">
       <c r="A50" s="14" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="14" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="14" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
     </row>
-    <row r="57" ht="27" spans="1:5">
+    <row r="57" ht="43.2" spans="1:5">
       <c r="A57" s="14" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="58" ht="27" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58" ht="28.8" spans="1:5">
       <c r="A58" s="14" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -9114,366 +9149,366 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="35" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C60" s="35"/>
       <c r="E60" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F60" s="35"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="35" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C61" s="35"/>
       <c r="E61" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F61" s="35"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="35" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C62" s="35"/>
       <c r="E62" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="35" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C63" s="35"/>
       <c r="E63" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="35" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C64" s="35"/>
       <c r="E64" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F64" s="35"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="35" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F65" s="35"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="35" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F66" s="35"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="35" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C67" s="35"/>
       <c r="E67" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F67" s="35"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="35" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C68" s="35"/>
       <c r="E68" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F68" s="35"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="35" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F69" s="35"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="35" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C70" s="35"/>
       <c r="E70" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="35" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F71" s="35"/>
     </row>
-    <row r="73" ht="27" spans="1:2">
+    <row r="73" ht="28.8" spans="1:2">
       <c r="A73" s="14" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" ht="27" spans="1:2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" ht="28.8" spans="1:2">
       <c r="A75" s="14" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="14" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" ht="28.8" spans="1:2">
       <c r="A77" s="14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="14" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="79" ht="27" spans="1:2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" ht="28.8" spans="1:2">
       <c r="A79" s="14" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="80" ht="27" spans="1:2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80" ht="28.8" spans="1:2">
       <c r="A80" s="14" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="81" ht="27" spans="1:2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" ht="28.8" spans="1:2">
       <c r="A81" s="14" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="14" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="14" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="84" ht="67.5" spans="1:2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" ht="72" spans="1:2">
       <c r="A84" s="14" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="85" ht="67.5" spans="1:2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" ht="72" spans="1:2">
       <c r="A85" s="14" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="14" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="87" ht="54" spans="1:2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" ht="57.6" spans="1:2">
       <c r="A87" s="14" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="88" ht="27" spans="1:2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" ht="28.8" spans="1:2">
       <c r="A88" s="14" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="14" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="14" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="14" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="94" ht="27" spans="1:2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="94" ht="28.8" spans="1:2">
       <c r="A94" s="14" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="14" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="96" ht="27" spans="1:2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" ht="28.8" spans="1:2">
       <c r="A96" s="14" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="97" ht="27" spans="1:2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="97" ht="28.8" spans="1:2">
       <c r="A97" s="14" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="99" ht="27" spans="1:2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" ht="43.2" spans="1:2">
       <c r="A99" s="14" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="100" ht="27" spans="1:2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="100" ht="28.8" spans="1:2">
       <c r="A100" s="14" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -9494,15 +9529,15 @@
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="8.13333333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.12962962962963" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="10.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="5.88333333333333" customWidth="1"/>
-    <col min="6" max="6" width="26.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="3.63333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="5.87962962962963" customWidth="1"/>
+    <col min="6" max="6" width="26.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="3.62962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9510,22 +9545,22 @@
         <v>11</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9534,14 +9569,14 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G2" s="26"/>
     </row>
@@ -9549,14 +9584,14 @@
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G3" s="26"/>
     </row>
@@ -9564,10 +9599,10 @@
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G4" s="26"/>
     </row>
@@ -9575,14 +9610,14 @@
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G5" s="26"/>
     </row>
@@ -9590,12 +9625,12 @@
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G6" s="26"/>
     </row>
@@ -9603,14 +9638,14 @@
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G7" s="26"/>
     </row>
@@ -9621,7 +9656,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G8" s="26"/>
     </row>
@@ -9663,101 +9698,101 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="26" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="28"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="28"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="28"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>445</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="28"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G18" s="26"/>
     </row>
@@ -9765,12 +9800,12 @@
       <c r="A19" s="28"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G19" s="26"/>
     </row>
@@ -9778,12 +9813,12 @@
       <c r="A20" s="28"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G20" s="26"/>
     </row>
@@ -9791,12 +9826,12 @@
       <c r="A21" s="28"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G21" s="26"/>
     </row>
@@ -9804,12 +9839,12 @@
       <c r="A22" s="28"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G22" s="26"/>
     </row>
@@ -9817,80 +9852,80 @@
       <c r="A23" s="28"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="29"/>
       <c r="B24" s="26" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="29"/>
       <c r="B25" s="26" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="28"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G27" s="26"/>
     </row>
@@ -9898,12 +9933,12 @@
       <c r="A28" s="28"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G28" s="26"/>
     </row>
@@ -9911,51 +9946,51 @@
       <c r="A29" s="28"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="28"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -9980,138 +10015,138 @@
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="26" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="26" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="26" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="26" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -10190,112 +10225,112 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="8.89166666666667" style="14"/>
-    <col min="4" max="4" width="19.8833333333333" style="14" customWidth="1"/>
+    <col min="1" max="3" width="8.88888888888889" style="14"/>
+    <col min="4" max="4" width="19.8796296296296" style="14" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:5">
+      <c r="A2" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>428</v>
-      </c>
       <c r="B2" s="14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="26" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" s="26" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="14" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="4:5">
       <c r="D11" s="14" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -10318,257 +10353,257 @@
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="47.6083333333333" customWidth="1"/>
+    <col min="2" max="2" width="47.6111111111111" customWidth="1"/>
     <col min="4" max="4" width="91.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="84.75" customWidth="1"/>
-    <col min="7" max="7" width="50.1166666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.9666666666667" customWidth="1"/>
+    <col min="7" max="7" width="50.1203703703704" customWidth="1"/>
+    <col min="12" max="12" width="18.962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:5">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:5">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="40.5" spans="1:5">
+    <row r="7" ht="43.2" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:5">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="27" spans="1:5">
+    <row r="10" ht="28.8" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="1:5">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" ht="57.6" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" ht="103.5" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -10576,84 +10611,84 @@
       <c r="A18" s="2"/>
       <c r="B18" s="10"/>
       <c r="C18" s="6" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:5">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" ht="43.2" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:5">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="5:5">
@@ -10670,155 +10705,155 @@
         <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C38" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C39" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C40" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C41" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C42" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C44" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B51" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B53" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B54" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="55" ht="67.5" spans="1:6">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="55" ht="72" spans="1:6">
       <c r="A55" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="56" ht="54" spans="3:5">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="56" ht="57.6" spans="3:5">
       <c r="C56" s="11" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B61" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B62" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B63" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B64" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -10826,144 +10861,144 @@
         <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B66" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B68" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B72" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="78" ht="67.5" spans="2:2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="78" ht="72" spans="2:2">
       <c r="B78" s="11" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="79" ht="27" spans="2:2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="79" ht="28.8" spans="2:2">
       <c r="B79" s="11" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="80" ht="54" spans="2:2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="80" ht="57.6" spans="2:2">
       <c r="B80" s="11" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="81" ht="67.5" spans="2:2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="81" ht="72" spans="2:2">
       <c r="B81" s="11" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="87" ht="175.5" spans="2:2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="87" ht="187.2" spans="2:2">
       <c r="B87" s="11" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C94" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D94" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E94" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D95" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E95" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D96" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E96" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -10973,23 +11008,23 @@
     <row r="98" spans="1:3">
       <c r="A98" s="12"/>
       <c r="B98" s="12" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C98" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D99" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E99" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -10999,24 +11034,24 @@
     <row r="101" spans="1:3">
       <c r="A101" s="12"/>
       <c r="B101" s="12" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C101" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -11030,383 +11065,383 @@
     <row r="106" spans="1:3">
       <c r="A106" s="12"/>
       <c r="B106" s="12" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C106" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="13" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B110" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C110" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D110" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E110" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F110" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="G110" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="111" ht="40.5" spans="1:7">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="111" ht="43.2" spans="1:7">
       <c r="A111" s="13" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B111" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C111" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D111" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E111" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="13" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B112" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C112" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D112" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="13" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B113" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C113" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D113" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E113" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F113" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="14" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="14"/>
       <c r="B116" s="17" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="14"/>
       <c r="B117" s="19" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C117" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="14"/>
       <c r="B118" s="20" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C118" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="14"/>
       <c r="B119" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="14" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E120" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="14"/>
       <c r="B121" s="16" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="14"/>
       <c r="B122" s="23" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C122" s="24"/>
       <c r="D122" s="23" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E122" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="14" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B123" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C123" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="14"/>
       <c r="B124" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C124" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="14"/>
       <c r="B125" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C125" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="14"/>
       <c r="B126" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C126" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="14"/>
       <c r="B127" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C127" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="14"/>
       <c r="B128" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C128" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="14"/>
       <c r="B129" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C129" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="14"/>
       <c r="B130" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C130" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="14"/>
       <c r="B131" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C131" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="14" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B132" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C132" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="14"/>
       <c r="B133" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C133" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="14"/>
       <c r="B134" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C134" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="14"/>
       <c r="B135" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C135" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="14"/>
       <c r="B136" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C136" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="14"/>
       <c r="B137" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C137" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="14"/>
       <c r="B138" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C138" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="14"/>
       <c r="B139" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C139" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="14"/>
       <c r="B140" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C140" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="14" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B141" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C141" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="14"/>
       <c r="B142" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C142" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="14"/>
       <c r="B143" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C143" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="14"/>
       <c r="B144" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C144" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="14"/>
       <c r="B145" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C145" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -11417,7 +11452,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="14" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B149" t="s">
         <v>31</v>
@@ -11479,19 +11514,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
+++ b/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="797" activeTab="2"/>
+    <workbookView windowWidth="28128" windowHeight="12660" tabRatio="797" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="必读！合作条约" sheetId="18" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="742">
   <si>
     <t>代表卡牌信息，分为单人模式卡牌和多人模式卡牌
 卡牌ID的生成方式 模式（单人：1或多人：2+系列（00~99）+位阶（领袖0，金1，银2，铜3）+第几张牌（000~999））
@@ -716,12 +716,18 @@
     <t>八班神奈子</t>
   </si>
   <si>
+    <t>场上每触发一次位移效果，给予对方随机单位1点伤害</t>
+  </si>
+  <si>
     <t>神明</t>
   </si>
   <si>
     <t>诹坊子</t>
   </si>
   <si>
+    <t>我方回合结束时，若自身右侧存在单位，则向右移动一格位置并给与对方一点伤害（多个同类型效果可能会有bug）</t>
+  </si>
+  <si>
     <t>命定之抽</t>
   </si>
   <si>
@@ -743,10 +749,10 @@
     <t>祷告</t>
   </si>
   <si>
-    <t>祈祷</t>
-  </si>
-  <si>
-    <t>回合结束：我方奇迹牌获得一点祈祷值</t>
+    <t>静坐祈福</t>
+  </si>
+  <si>
+    <t>回合结束：我方所有奇迹牌获得一点祈祷值</t>
   </si>
   <si>
     <t>给与我方单位与自身祈祷值等量的增益</t>
@@ -5509,21 +5515,22 @@
   </sheetPr>
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomLeft" activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="38"/>
     <col min="2" max="2" width="8.12962962962963" style="39" customWidth="1"/>
-    <col min="3" max="4" width="25.3518518518519" style="38" customWidth="1"/>
+    <col min="3" max="3" width="25.3518518518519" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.3518518518519" style="38" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="34.4537037037037" style="40" customWidth="1"/>
-    <col min="6" max="6" width="34.4537037037037" style="38" customWidth="1"/>
+    <col min="6" max="6" width="34.4537037037037" style="38" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="41.4074074074074" style="41" customWidth="1"/>
-    <col min="8" max="8" width="37.5185185185185" style="38" customWidth="1"/>
+    <col min="8" max="8" width="37.5185185185185" style="38" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="13.7314814814815" style="40" customWidth="1"/>
     <col min="10" max="10" width="9.65740740740741" style="38" customWidth="1"/>
     <col min="11" max="11" width="9" style="42"/>
@@ -8192,7 +8199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" ht="28.8" spans="1:12">
       <c r="A67" s="38">
         <v>2</v>
       </c>
@@ -8202,8 +8209,11 @@
       <c r="C67" s="38" t="s">
         <v>219</v>
       </c>
+      <c r="G67" s="41" t="s">
+        <v>220</v>
+      </c>
       <c r="I67" s="40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J67" s="38" t="s">
         <v>28</v>
@@ -8215,7 +8225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" ht="43.2" spans="1:12">
       <c r="A68" s="38">
         <v>3</v>
       </c>
@@ -8223,10 +8233,13 @@
         <v>20</v>
       </c>
       <c r="C68" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I68" s="40" t="s">
         <v>221</v>
-      </c>
-      <c r="I68" s="40" t="s">
-        <v>220</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>28</v>
@@ -8260,16 +8273,16 @@
         <v>20</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J70" s="38" t="s">
         <v>72</v>
@@ -8289,13 +8302,13 @@
         <v>20</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I71" s="40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J71" s="38" t="s">
         <v>28</v>
@@ -8385,13 +8398,13 @@
         <v>20</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G77" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I77" s="40" t="s">
         <v>230</v>
-      </c>
-      <c r="I77" s="40" t="s">
-        <v>228</v>
       </c>
       <c r="J77" s="38" t="s">
         <v>28</v>
@@ -8425,10 +8438,10 @@
         <v>20</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I79" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J79" s="38" t="s">
         <v>72</v>
@@ -8448,10 +8461,10 @@
         <v>20</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I80" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J80" s="38" t="s">
         <v>72</v>
@@ -8509,10 +8522,10 @@
         <v>3</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q90" s="44">
         <v>0</v>
@@ -8526,10 +8539,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q91" s="44">
         <v>0</v>
@@ -8537,7 +8550,7 @@
     </row>
     <row r="92" spans="7:17">
       <c r="G92" s="41" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q92" s="44">
         <v>0</v>
@@ -8545,7 +8558,7 @@
     </row>
     <row r="93" ht="28.8" spans="7:17">
       <c r="G93" s="41" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q93" s="44">
         <v>0</v>
@@ -8556,13 +8569,13 @@
         <v>1</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q94" s="44">
         <v>0</v>
@@ -8633,7 +8646,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -8644,66 +8657,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -8742,216 +8755,216 @@
         <v>11</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="35" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="35" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="35" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="35" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="35" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="37" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="35" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -8967,232 +8980,232 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="35" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="35" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="35" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>307</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>305</v>
       </c>
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="35" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="35" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="35" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="35" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="35" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="35" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G24" s="35"/>
     </row>
@@ -9206,394 +9219,394 @@
     </row>
     <row r="26" ht="28.8" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>321</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C27" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>324</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C28" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C29" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>330</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C30" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C31" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>336</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="32" ht="28.8" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C32" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:5">
       <c r="A33" s="14" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C33" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>342</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="34" ht="28.8" spans="1:5">
       <c r="A34" s="14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C34" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C35" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>348</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C36" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>351</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="37" ht="72" spans="1:5">
       <c r="A37" s="14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" ht="72" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="14" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" ht="57.6" spans="1:5">
       <c r="A40" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" ht="28.8" spans="1:5">
       <c r="A41" s="14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C41" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C42" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C43" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C45" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>371</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C46" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>374</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="47" ht="28.8" spans="1:5">
       <c r="A47" s="14" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C47" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>377</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="14" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C48" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="49" ht="28.8" spans="1:5">
       <c r="A49" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C49" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>383</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="50" ht="28.8" spans="1:5">
       <c r="A50" s="14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C50" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>386</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -9602,30 +9615,30 @@
     </row>
     <row r="57" ht="43.2" spans="1:5">
       <c r="A57" s="14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C57" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="E57" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:5">
       <c r="A58" s="14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C58" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E58" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -9634,366 +9647,366 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="35" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C60" s="35"/>
       <c r="E60" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F60" s="35"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="35" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C61" s="35"/>
       <c r="E61" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F61" s="35"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="35" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C62" s="35"/>
       <c r="E62" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="35" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C63" s="35"/>
       <c r="E63" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="35" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C64" s="35"/>
       <c r="E64" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F64" s="35"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="35" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F65" s="35"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="35" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F66" s="35"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="35" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C67" s="35"/>
       <c r="E67" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F67" s="35"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C68" s="35"/>
       <c r="E68" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F68" s="35"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="35" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F69" s="35"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C70" s="35"/>
       <c r="E70" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="35" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F71" s="35"/>
     </row>
     <row r="73" ht="28.8" spans="1:2">
       <c r="A73" s="14" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="14" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" ht="28.8" spans="1:2">
       <c r="A75" s="14" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="14" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
       <c r="A77" s="14" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="14" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" ht="28.8" spans="1:2">
       <c r="A79" s="14" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:2">
       <c r="A80" s="14" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" ht="28.8" spans="1:2">
       <c r="A81" s="14" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="14" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" ht="72" spans="1:2">
       <c r="A84" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" ht="72" spans="1:2">
       <c r="A85" s="14" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="14" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" ht="57.6" spans="1:2">
       <c r="A87" s="14" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" ht="28.8" spans="1:2">
       <c r="A88" s="14" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="14" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="14" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="14" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94" ht="28.8" spans="1:2">
       <c r="A94" s="14" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="14" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
       <c r="A96" s="14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" ht="28.8" spans="1:2">
       <c r="A97" s="14" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" ht="43.2" spans="1:2">
       <c r="A99" s="14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" ht="28.8" spans="1:2">
       <c r="A100" s="14" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -10030,22 +10043,22 @@
         <v>11</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10054,14 +10067,14 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G2" s="26"/>
     </row>
@@ -10069,14 +10082,14 @@
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G3" s="26"/>
     </row>
@@ -10084,10 +10097,10 @@
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G4" s="26"/>
     </row>
@@ -10095,14 +10108,14 @@
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G5" s="26"/>
     </row>
@@ -10110,12 +10123,12 @@
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G6" s="26"/>
     </row>
@@ -10123,14 +10136,14 @@
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G7" s="26"/>
     </row>
@@ -10141,7 +10154,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G8" s="26"/>
     </row>
@@ -10183,101 +10196,101 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="26" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="28"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>465</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="28"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="28"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="28"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G18" s="26"/>
     </row>
@@ -10285,12 +10298,12 @@
       <c r="A19" s="28"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G19" s="26"/>
     </row>
@@ -10298,12 +10311,12 @@
       <c r="A20" s="28"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G20" s="26"/>
     </row>
@@ -10311,12 +10324,12 @@
       <c r="A21" s="28"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G21" s="26"/>
     </row>
@@ -10324,12 +10337,12 @@
       <c r="A22" s="28"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G22" s="26"/>
     </row>
@@ -10337,80 +10350,80 @@
       <c r="A23" s="28"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="29"/>
       <c r="B24" s="26" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="29"/>
       <c r="B25" s="26" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="28"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G27" s="26"/>
     </row>
@@ -10418,12 +10431,12 @@
       <c r="A28" s="28"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G28" s="26"/>
     </row>
@@ -10431,51 +10444,51 @@
       <c r="A29" s="28"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="28"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -10500,138 +10513,138 @@
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="26" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="26" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="26" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="26" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -10719,103 +10732,103 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="26" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" s="26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="14" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="4:5">
       <c r="D11" s="14" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -10849,19 +10862,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
@@ -10869,69 +10882,69 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -10939,42 +10952,42 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -10982,71 +10995,71 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" ht="103.5" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11054,41 +11067,41 @@
         <v>218</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -11096,84 +11109,84 @@
       <c r="A18" s="2"/>
       <c r="B18" s="10"/>
       <c r="C18" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" ht="43.2" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="5:5">
@@ -11190,155 +11203,155 @@
         <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C38" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C39" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C40" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C41" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C42" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C44" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B51" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B53" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B54" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" ht="72" spans="1:6">
       <c r="A55" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" ht="57.6" spans="3:5">
       <c r="C56" s="11" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B61" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B62" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B63" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B64" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -11346,144 +11359,144 @@
         <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B66" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B68" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B72" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="78" ht="72" spans="2:2">
       <c r="B78" s="11" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="79" ht="28.8" spans="2:2">
       <c r="B79" s="11" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="80" ht="57.6" spans="2:2">
       <c r="B80" s="11" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="81" ht="72" spans="2:2">
       <c r="B81" s="11" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="87" ht="187.2" spans="2:2">
       <c r="B87" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C94" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D94" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E94" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" t="s">
+        <v>648</v>
+      </c>
+      <c r="D95" t="s">
         <v>646</v>
       </c>
-      <c r="D95" t="s">
-        <v>644</v>
-      </c>
       <c r="E95" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" t="s">
+        <v>649</v>
+      </c>
+      <c r="D96" t="s">
+        <v>646</v>
+      </c>
+      <c r="E96" t="s">
         <v>647</v>
-      </c>
-      <c r="D96" t="s">
-        <v>644</v>
-      </c>
-      <c r="E96" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -11493,23 +11506,23 @@
     <row r="98" spans="1:3">
       <c r="A98" s="12"/>
       <c r="B98" s="12" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C98" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D99" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E99" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -11519,24 +11532,24 @@
     <row r="101" spans="1:3">
       <c r="A101" s="12"/>
       <c r="B101" s="12" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C101" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -11550,383 +11563,383 @@
     <row r="106" spans="1:3">
       <c r="A106" s="12"/>
       <c r="B106" s="12" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C106" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="13" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B110" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C110" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D110" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E110" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F110" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G110" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="111" ht="43.2" spans="1:7">
       <c r="A111" s="13" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B111" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C111" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D111" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E111" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="13" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B112" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C112" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D112" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="13" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B113" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C113" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D113" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E113" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F113" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="14" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="14"/>
       <c r="B116" s="17" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="14"/>
       <c r="B117" s="19" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C117" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="14"/>
       <c r="B118" s="20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C118" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="14"/>
       <c r="B119" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="14" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E120" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="14"/>
       <c r="B121" s="16" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="14"/>
       <c r="B122" s="23" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C122" s="24"/>
       <c r="D122" s="23" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E122" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="14" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B123" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C123" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="14"/>
       <c r="B124" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C124" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="14"/>
       <c r="B125" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C125" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="14"/>
       <c r="B126" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C126" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="14"/>
       <c r="B127" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C127" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="14"/>
       <c r="B128" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C128" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="14"/>
       <c r="B129" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C129" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="14"/>
       <c r="B130" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C130" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="14"/>
       <c r="B131" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C131" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="14" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B132" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C132" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="14"/>
       <c r="B133" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C133" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="14"/>
       <c r="B134" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C134" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="14"/>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C135" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="14"/>
       <c r="B136" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C136" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="14"/>
       <c r="B137" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C137" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="14"/>
       <c r="B138" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C138" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="14"/>
       <c r="B139" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C139" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="14"/>
       <c r="B140" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C140" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="14" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B141" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C141" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="14"/>
       <c r="B142" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C142" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="14"/>
       <c r="B143" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C143" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="14"/>
       <c r="B144" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C144" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="14"/>
       <c r="B145" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C145" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -11937,7 +11950,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="14" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B149" t="s">
         <v>31</v>
@@ -12003,15 +12016,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
+++ b/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="12660" tabRatio="797" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="797" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="必读！合作条约" sheetId="18" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="合作名单" sheetId="21" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CardData-Multi'!$A$1:$R$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CardData-Multi'!$A$1:$R$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">设定随笔!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="752">
   <si>
     <t>代表卡牌信息，分为单人模式卡牌和多人模式卡牌
 卡牌ID的生成方式 模式（单人：1或多人：2+系列（00~99）+位阶（领袖0，金1，银2，铜3）+第几张牌（000~999））
@@ -704,7 +704,7 @@
     <t>东风谷早苗</t>
   </si>
   <si>
-    <t>令场上所有牌产生至内向外产生位移</t>
+    <t>令场上所有牌至内向外产生位移</t>
   </si>
   <si>
     <t>现人神</t>
@@ -716,7 +716,7 @@
     <t>八班神奈子</t>
   </si>
   <si>
-    <t>场上每触发一次位移效果，给予对方随机单位1点伤害</t>
+    <t>场上每触发一次位移效果后，给予其1点伤害</t>
   </si>
   <si>
     <t>神明</t>
@@ -743,24 +743,51 @@
     <t>诹访大舞</t>
   </si>
   <si>
-    <t>每有一个单位发生位移，：我方奇迹卡牌获得一点祈祷值</t>
+    <t>每有一个单位发生位移，我方奇迹卡牌获得一点祈祷值</t>
   </si>
   <si>
     <t>祷告</t>
   </si>
   <si>
+    <t>奇迹*圣人苏生</t>
+  </si>
+  <si>
+    <t>死而复生，是为奇迹！</t>
+  </si>
+  <si>
+    <t>从墓地中选择一张小于等于自身祈祷值的单位复活至场上</t>
+  </si>
+  <si>
+    <t>复活墓地一张奇迹牌，并将自身祈祷值转移给它后将其打出</t>
+  </si>
+  <si>
     <t>静坐祈福</t>
   </si>
   <si>
     <t>回合结束：我方所有奇迹牌获得一点祈祷值</t>
   </si>
   <si>
+    <t>苦难磨练</t>
+  </si>
+  <si>
+    <t>自身受到伤害后，我方所有奇迹牌获得一点祈祷值</t>
+  </si>
+  <si>
+    <t>从牌组中打出点数小于自身祈祷值且最接近的铜色单位</t>
+  </si>
+  <si>
     <t>给与我方单位与自身祈祷值等量的增益</t>
   </si>
   <si>
     <t>给与我方单位与自身祈祷值等量的伤害</t>
   </si>
   <si>
+    <t>宗教传销</t>
+  </si>
+  <si>
+    <t>部署：选择场上一个单位，将其移动至所在半场与该牌属性相同排的最右侧</t>
+  </si>
+  <si>
     <t>火焰猫磷</t>
   </si>
   <si>
@@ -786,6 +813,9 @@
   </si>
   <si>
     <t>我发回合结束时：自身点数增加1，移动至对方点数最大单位右侧，并对其造成与自身点数相同的伤害</t>
+  </si>
+  <si>
+    <t>风见幽香</t>
   </si>
   <si>
     <t>stage</t>
@@ -2352,11 +2382,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2446,21 +2476,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2475,15 +2506,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2491,9 +2514,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2513,46 +2572,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2567,23 +2612,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2760,73 +2790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,7 +2808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,43 +2832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2910,7 +2862,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2922,7 +2952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3066,6 +3096,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3090,50 +3159,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3160,10 +3190,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3172,133 +3202,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="49" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3327,13 +3357,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3989,12 +4019,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="60.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" spans="1:2">
+    <row r="1" ht="67.5" spans="1:2">
       <c r="A1" s="103"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -4012,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:2">
+    <row r="9" ht="27" spans="1:2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4039,24 +4069,24 @@
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="11.8888888888889" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21.4259259259259" style="14" customWidth="1"/>
-    <col min="5" max="5" width="25.8703703703704" style="31" customWidth="1"/>
-    <col min="6" max="6" width="35.2037037037037" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.8916666666667" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.425" style="14" customWidth="1"/>
+    <col min="5" max="5" width="25.8666666666667" style="31" customWidth="1"/>
+    <col min="6" max="6" width="35.2" style="31" customWidth="1"/>
     <col min="7" max="7" width="9" style="84"/>
-    <col min="8" max="8" width="9.65740740740741" style="84" customWidth="1"/>
+    <col min="8" max="8" width="9.65833333333333" style="84" customWidth="1"/>
     <col min="9" max="9" width="9" style="84"/>
-    <col min="10" max="10" width="12.537037037037" style="84" customWidth="1"/>
+    <col min="10" max="10" width="12.5333333333333" style="84" customWidth="1"/>
     <col min="11" max="11" width="9" style="84"/>
     <col min="12" max="12" width="13.1666666666667" style="84" customWidth="1"/>
-    <col min="13" max="13" width="10.8796296296296" style="14" customWidth="1"/>
-    <col min="14" max="14" width="17.9259259259259" style="84" customWidth="1"/>
-    <col min="15" max="15" width="13.1944444444444" style="14" customWidth="1"/>
-    <col min="16" max="16" width="15.5555555555556" style="85" customWidth="1"/>
-    <col min="17" max="17" width="20.8888888888889" style="86" customWidth="1"/>
+    <col min="13" max="13" width="10.8833333333333" style="14" customWidth="1"/>
+    <col min="14" max="14" width="17.925" style="84" customWidth="1"/>
+    <col min="15" max="15" width="13.1916666666667" style="14" customWidth="1"/>
+    <col min="16" max="16" width="15.5583333333333" style="85" customWidth="1"/>
+    <col min="17" max="17" width="20.8916666666667" style="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4112,7 +4142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="43.2" spans="1:17">
+    <row r="2" customFormat="1" ht="40.5" spans="1:17">
       <c r="A2" s="90">
         <v>1</v>
       </c>
@@ -4163,7 +4193,7 @@
       </c>
       <c r="Q2" s="102"/>
     </row>
-    <row r="3" customFormat="1" ht="28.8" spans="1:17">
+    <row r="3" customFormat="1" ht="27" spans="1:17">
       <c r="A3" s="90">
         <v>1</v>
       </c>
@@ -4259,7 +4289,7 @@
       </c>
       <c r="Q4" s="102"/>
     </row>
-    <row r="5" customFormat="1" ht="28.8" spans="1:17">
+    <row r="5" customFormat="1" ht="27" spans="1:17">
       <c r="A5" s="90">
         <v>3</v>
       </c>
@@ -4306,7 +4336,7 @@
       </c>
       <c r="Q5" s="102"/>
     </row>
-    <row r="6" customFormat="1" ht="43.2" spans="1:17">
+    <row r="6" customFormat="1" ht="40.5" spans="1:17">
       <c r="A6" s="90">
         <v>4</v>
       </c>
@@ -4496,7 +4526,7 @@
       </c>
       <c r="Q9" s="102"/>
     </row>
-    <row r="10" customFormat="1" ht="28.8" spans="1:17">
+    <row r="10" customFormat="1" ht="27" spans="1:17">
       <c r="A10" s="90">
         <v>4</v>
       </c>
@@ -4731,7 +4761,7 @@
       </c>
       <c r="Q14" s="102"/>
     </row>
-    <row r="15" customFormat="1" ht="28.8" spans="1:17">
+    <row r="15" customFormat="1" ht="27" spans="1:17">
       <c r="A15" s="90">
         <v>3</v>
       </c>
@@ -4778,7 +4808,7 @@
       </c>
       <c r="Q15" s="102"/>
     </row>
-    <row r="16" customFormat="1" ht="43.2" spans="1:17">
+    <row r="16" customFormat="1" ht="40.5" spans="1:17">
       <c r="A16" s="90">
         <v>4</v>
       </c>
@@ -5483,11 +5513,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J6 J11 J12 J17 J2:J5 J7:J10 J13:J16 J18:J1048576">
       <formula1>"领袖,金,银,铜"</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="P22 P23 P24 P25 P26 P29 P30 P31 P41 P1048576 P2:P3 P4:P7 P8:P11 P12:P14 P15:P16 P17:P21 P27:P28 P32:P35 P36:P40 P42:P53 P54:P70 P71:P1048566 P1048567:P1048569 P1048570:P1048575">
+      <formula1>IF(TRUE,OR(P2=0,P2=1),"Checkbox")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N2:N1048576">
+      <formula1>"正体,衍生"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="H2:H1048576">
       <formula1>"单位,特殊"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="P22 P23 P24 P25 P26 P29 P30 P31 P41 P1048576 P2:P3 P4:P7 P8:P11 P12:P14 P15:P16 P17:P21 P27:P28 P32:P35 P36:P40 P42:P53 P54:P70 P71:P1048566 P1048567:P1048569 P1048570:P1048575">
-      <formula1>IF(TRUE,OR(P2=0,P2=1),"Checkbox")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="I2:I1048576">
       <formula1>"中立,道教,佛教,科学,神道教"</formula1>
@@ -5497,9 +5530,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L2:L1048576">
       <formula1>"我方,敌方"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N2:N1048576">
-      <formula1>"正体,衍生"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5513,34 +5543,34 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R99" sqref="R99"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="8.12962962962963" style="39" customWidth="1"/>
-    <col min="3" max="3" width="25.3518518518519" style="38" customWidth="1"/>
-    <col min="4" max="4" width="25.3518518518519" style="38" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.4537037037037" style="40" customWidth="1"/>
-    <col min="6" max="6" width="34.4537037037037" style="38" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="41.4074074074074" style="41" customWidth="1"/>
-    <col min="8" max="8" width="37.5185185185185" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7314814814815" style="40" customWidth="1"/>
-    <col min="10" max="10" width="9.65740740740741" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.13333333333333" style="39" customWidth="1"/>
+    <col min="3" max="3" width="25.35" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.35" style="38" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.45" style="40" customWidth="1"/>
+    <col min="6" max="6" width="34.45" style="38" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="41.4083333333333" style="41" customWidth="1"/>
+    <col min="8" max="8" width="37.5166666666667" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7333333333333" style="40" customWidth="1"/>
+    <col min="10" max="10" width="9.65833333333333" style="38" customWidth="1"/>
     <col min="11" max="11" width="9" style="42"/>
-    <col min="12" max="12" width="12.537037037037" style="43" customWidth="1"/>
+    <col min="12" max="12" width="12.5333333333333" style="43" customWidth="1"/>
     <col min="13" max="13" width="9" style="38"/>
     <col min="14" max="14" width="13.1666666666667" style="38" customWidth="1"/>
-    <col min="15" max="15" width="10.8796296296296" style="38" customWidth="1"/>
-    <col min="16" max="16" width="17.9259259259259" style="38" customWidth="1"/>
-    <col min="17" max="17" width="15.5555555555556" style="44" customWidth="1"/>
-    <col min="18" max="18" width="20.8888888888889" style="45" customWidth="1"/>
+    <col min="15" max="15" width="10.8833333333333" style="38" customWidth="1"/>
+    <col min="16" max="16" width="17.925" style="38" customWidth="1"/>
+    <col min="17" max="17" width="15.5583333333333" style="44" customWidth="1"/>
+    <col min="18" max="18" width="20.8916666666667" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5619,7 +5649,7 @@
       <c r="Q2" s="70"/>
       <c r="R2" s="71"/>
     </row>
-    <row r="3" ht="43.2" spans="1:17">
+    <row r="3" ht="27" spans="1:17">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -5666,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="57.6" spans="1:18">
+    <row r="4" ht="54" spans="1:18">
       <c r="A4" s="38">
         <v>1</v>
       </c>
@@ -5716,7 +5746,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:17">
+    <row r="5" spans="1:17">
       <c r="A5" s="38">
         <v>2</v>
       </c>
@@ -5760,7 +5790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="43.2" spans="1:17">
+    <row r="6" ht="27" spans="1:17">
       <c r="A6" s="38">
         <v>3</v>
       </c>
@@ -5801,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="43.2" spans="1:17">
+    <row r="7" ht="40.5" spans="1:17">
       <c r="A7" s="38">
         <v>4</v>
       </c>
@@ -5842,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="1:17">
+    <row r="8" ht="40.5" spans="1:17">
       <c r="A8" s="38">
         <v>1</v>
       </c>
@@ -5883,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:17">
+    <row r="9" ht="40.5" spans="1:17">
       <c r="A9" s="38">
         <v>2</v>
       </c>
@@ -5924,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:17">
+    <row r="10" ht="40.5" spans="1:17">
       <c r="A10" s="38">
         <v>3</v>
       </c>
@@ -5965,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="43.2" spans="1:17">
+    <row r="11" ht="27" spans="1:17">
       <c r="A11" s="38">
         <v>4</v>
       </c>
@@ -6053,7 +6083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:17">
+    <row r="13" spans="1:17">
       <c r="A13" s="38">
         <v>6</v>
       </c>
@@ -6097,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:17">
+    <row r="14" ht="27" spans="1:17">
       <c r="A14" s="38">
         <v>1</v>
       </c>
@@ -6138,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:17">
+    <row r="15" ht="27" spans="1:17">
       <c r="A15" s="38">
         <v>2</v>
       </c>
@@ -6182,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:17">
+    <row r="16" ht="27" spans="1:17">
       <c r="A16" s="38">
         <v>3</v>
       </c>
@@ -6223,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="43.2" spans="1:17">
+    <row r="17" ht="27" spans="1:17">
       <c r="A17" s="38">
         <v>4</v>
       </c>
@@ -6325,7 +6355,7 @@
       <c r="Q19" s="72"/>
       <c r="R19" s="73"/>
     </row>
-    <row r="20" ht="43.2" spans="1:17">
+    <row r="20" ht="40.5" spans="1:17">
       <c r="A20" s="38">
         <v>1</v>
       </c>
@@ -6366,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="28.8" spans="1:17">
+    <row r="21" spans="1:17">
       <c r="A21" s="38">
         <v>1</v>
       </c>
@@ -6407,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="43.2" spans="1:17">
+    <row r="22" ht="27" spans="1:17">
       <c r="A22" s="38">
         <v>2</v>
       </c>
@@ -6530,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="28.8" spans="1:17">
+    <row r="25" ht="27" spans="1:17">
       <c r="A25" s="38">
         <v>1</v>
       </c>
@@ -6571,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="72" spans="1:17">
+    <row r="26" ht="67.5" spans="1:17">
       <c r="A26" s="38">
         <v>2</v>
       </c>
@@ -6612,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="43.2" spans="1:17">
+    <row r="27" ht="27" spans="1:17">
       <c r="A27" s="38">
         <v>3</v>
       </c>
@@ -6653,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="57.6" spans="1:17">
+    <row r="28" ht="40.5" spans="1:17">
       <c r="A28" s="38">
         <v>4</v>
       </c>
@@ -6694,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:17">
+    <row r="29" ht="27" spans="1:17">
       <c r="A29" s="38">
         <v>5</v>
       </c>
@@ -6735,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="28.8" spans="1:17">
+    <row r="30" ht="27" spans="1:17">
       <c r="A30" s="38">
         <v>6</v>
       </c>
@@ -6905,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="28.8" spans="1:17">
+    <row r="34" ht="27" spans="1:17">
       <c r="A34" s="38">
         <v>2</v>
       </c>
@@ -7072,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="28.8" spans="1:17">
+    <row r="38" ht="27" spans="1:17">
       <c r="A38" s="38">
         <v>6</v>
       </c>
@@ -7113,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="28.8" spans="1:17">
+    <row r="39" ht="27" spans="1:17">
       <c r="A39" s="38">
         <v>7</v>
       </c>
@@ -7174,7 +7204,7 @@
       <c r="Q40" s="74"/>
       <c r="R40" s="75"/>
     </row>
-    <row r="41" ht="28.8" spans="1:17">
+    <row r="41" spans="1:17">
       <c r="A41" s="38">
         <v>1</v>
       </c>
@@ -7215,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="72" spans="1:17">
+    <row r="42" ht="54" spans="1:17">
       <c r="A42" s="38">
         <v>2</v>
       </c>
@@ -7279,7 +7309,7 @@
       <c r="Q43" s="55"/>
       <c r="R43" s="56"/>
     </row>
-    <row r="44" ht="43.2" spans="1:17">
+    <row r="44" ht="40.5" spans="1:17">
       <c r="A44" s="38">
         <v>1</v>
       </c>
@@ -7323,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="43.2" spans="1:17">
+    <row r="45" ht="27" spans="1:17">
       <c r="A45" s="38">
         <v>1</v>
       </c>
@@ -7367,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="28.8" spans="1:17">
+    <row r="46" ht="27" spans="1:17">
       <c r="A46" s="38">
         <v>1</v>
       </c>
@@ -7431,7 +7461,7 @@
       <c r="Q47" s="76"/>
       <c r="R47" s="77"/>
     </row>
-    <row r="48" ht="43.2" spans="1:17">
+    <row r="48" ht="40.5" spans="1:17">
       <c r="A48" s="38">
         <v>1</v>
       </c>
@@ -7484,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="43.2" spans="1:17">
+    <row r="49" ht="40.5" spans="1:17">
       <c r="A49" s="38">
         <v>1</v>
       </c>
@@ -7525,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="43.2" spans="1:17">
+    <row r="50" ht="27" spans="1:17">
       <c r="A50" s="38">
         <v>2</v>
       </c>
@@ -7566,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="28.8" spans="1:17">
+    <row r="51" ht="27" spans="1:17">
       <c r="A51" s="38">
         <v>3</v>
       </c>
@@ -7607,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="86.4" spans="1:17">
+    <row r="52" ht="54" spans="1:17">
       <c r="A52" s="38">
         <v>4</v>
       </c>
@@ -7648,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="28.8" spans="1:17">
+    <row r="53" ht="27" spans="1:17">
       <c r="A53" s="38">
         <v>1</v>
       </c>
@@ -7690,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="28.8" spans="1:17">
+    <row r="54" spans="1:17">
       <c r="A54" s="38">
         <v>2</v>
       </c>
@@ -7731,7 +7761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="28.8" spans="1:17">
+    <row r="55" ht="27" spans="1:17">
       <c r="A55" s="38">
         <v>3</v>
       </c>
@@ -7813,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="28.8" spans="1:17">
+    <row r="57" ht="27" spans="1:17">
       <c r="A57" s="38">
         <v>5</v>
       </c>
@@ -7857,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="28.8" spans="1:17">
+    <row r="58" ht="27" spans="1:17">
       <c r="A58" s="38">
         <v>6</v>
       </c>
@@ -7898,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="86.4" spans="1:18">
+    <row r="59" ht="54" spans="1:18">
       <c r="A59" s="38">
         <v>1</v>
       </c>
@@ -7942,7 +7972,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" ht="86.4" spans="1:18">
+    <row r="60" ht="54" spans="1:18">
       <c r="A60" s="38">
         <v>2</v>
       </c>
@@ -7986,7 +8016,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" ht="43.2" spans="1:17">
+    <row r="61" ht="27" spans="1:17">
       <c r="A61" s="38">
         <v>3</v>
       </c>
@@ -8027,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="43.2" spans="1:17">
+    <row r="62" ht="27" spans="1:17">
       <c r="A62" s="38">
         <v>4</v>
       </c>
@@ -8068,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="28.8" spans="1:17">
+    <row r="63" ht="27" spans="1:17">
       <c r="A63" s="38">
         <v>5</v>
       </c>
@@ -8109,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" ht="43.2" spans="1:17">
+    <row r="64" ht="40.5" spans="1:17">
       <c r="A64" s="38">
         <v>6</v>
       </c>
@@ -8173,7 +8203,7 @@
       <c r="Q65" s="82"/>
       <c r="R65" s="83"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:17">
       <c r="A66" s="38">
         <v>1</v>
       </c>
@@ -8198,8 +8228,23 @@
       <c r="L66" s="61" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" ht="28.8" spans="1:12">
+      <c r="M66" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N66" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="38">
+        <v>5</v>
+      </c>
+      <c r="P66" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q66" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="38">
         <v>2</v>
       </c>
@@ -8224,8 +8269,23 @@
       <c r="L67" s="62" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" ht="43.2" spans="1:12">
+      <c r="M67" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N67" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="38">
+        <v>5</v>
+      </c>
+      <c r="P67" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q67" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="40.5" spans="1:17">
       <c r="A68" s="38">
         <v>3</v>
       </c>
@@ -8250,8 +8310,23 @@
       <c r="L68" s="62" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="N68" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" s="38">
+        <v>5</v>
+      </c>
+      <c r="P68" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q68" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="38">
         <v>4</v>
       </c>
@@ -8264,8 +8339,17 @@
       <c r="L69" s="62" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="70" ht="28.8" spans="1:12">
+      <c r="N69" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q69" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="27" spans="1:17">
       <c r="A70" s="38">
         <v>5</v>
       </c>
@@ -8293,8 +8377,23 @@
       <c r="L70" s="62" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="71" ht="28.8" spans="1:12">
+      <c r="M70" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N70" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" s="38">
+        <v>0</v>
+      </c>
+      <c r="P70" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q70" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="27" spans="1:17">
       <c r="A71" s="38">
         <v>6</v>
       </c>
@@ -8319,36 +8418,93 @@
       <c r="L71" s="43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N71" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O71" s="38">
+        <v>5</v>
+      </c>
+      <c r="P71" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q71" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="27" spans="1:17">
       <c r="A72" s="38">
         <v>7</v>
       </c>
       <c r="B72" s="39">
         <v>20</v>
       </c>
+      <c r="C72" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="I72" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="J72" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="K72" s="42" t="s">
         <v>218</v>
       </c>
       <c r="L72" s="43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="N72" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q72" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="27" spans="1:17">
       <c r="A73" s="38">
         <v>8</v>
       </c>
       <c r="B73" s="39">
         <v>20</v>
       </c>
+      <c r="G73" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="I73" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="J73" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="K73" s="42" t="s">
         <v>218</v>
       </c>
       <c r="L73" s="43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="N73" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q73" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="38">
         <v>9</v>
       </c>
@@ -8361,8 +8517,17 @@
       <c r="L74" s="43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="N74" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q74" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="38">
         <v>10</v>
       </c>
@@ -8375,8 +8540,17 @@
       <c r="L75" s="43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="N75" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q75" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="38">
         <v>11</v>
       </c>
@@ -8389,8 +8563,17 @@
       <c r="L76" s="43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="N76" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q76" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="38">
         <v>12</v>
       </c>
@@ -8398,10 +8581,10 @@
         <v>20</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I77" s="40" t="s">
         <v>230</v>
@@ -8415,13 +8598,37 @@
       <c r="L77" s="63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N77" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O77" s="38">
+        <v>5</v>
+      </c>
+      <c r="P77" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q77" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" ht="27" spans="1:17">
       <c r="A78" s="38">
         <v>13</v>
       </c>
-      <c r="B78" s="39">
-        <v>20</v>
+      <c r="C78" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="I78" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="J78" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="K78" s="42" t="s">
         <v>218</v>
@@ -8429,8 +8636,23 @@
       <c r="L78" s="63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N78" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O78" s="38">
+        <v>5</v>
+      </c>
+      <c r="P78" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q78" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" ht="27" spans="1:17">
       <c r="A79" s="38">
         <v>14</v>
       </c>
@@ -8438,7 +8660,7 @@
         <v>20</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="I79" s="40" t="s">
         <v>227</v>
@@ -8452,8 +8674,23 @@
       <c r="L79" s="63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N79" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O79" s="38">
+        <v>0</v>
+      </c>
+      <c r="P79" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q79" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="38">
         <v>15</v>
       </c>
@@ -8461,7 +8698,7 @@
         <v>20</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I80" s="40" t="s">
         <v>227</v>
@@ -8475,115 +8712,221 @@
       <c r="L80" s="63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N80" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="38">
+        <v>0</v>
+      </c>
+      <c r="P80" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q80" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="38">
         <v>16</v>
       </c>
       <c r="B81" s="39">
         <v>20</v>
       </c>
+      <c r="G81" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="I81" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="J81" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="K81" s="42" t="s">
         <v>218</v>
       </c>
       <c r="L81" s="63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="82" spans="12:12">
-      <c r="L82" s="63"/>
-    </row>
-    <row r="83" spans="12:12">
+      <c r="M81" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N81" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" s="38">
+        <v>0</v>
+      </c>
+      <c r="P81" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q81" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="27" spans="1:17">
+      <c r="A82" s="38">
+        <v>17</v>
+      </c>
+      <c r="B82" s="39">
+        <v>20</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G82" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="J82" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="L82" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="M82" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N82" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="38">
+        <v>5</v>
+      </c>
+      <c r="P82" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q82" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="12:17">
       <c r="L83" s="63"/>
-    </row>
-    <row r="84" spans="12:12">
+      <c r="Q83" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="12:17">
       <c r="L84" s="63"/>
-    </row>
-    <row r="85" spans="12:12">
+      <c r="Q84" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="12:17">
       <c r="L85" s="63"/>
-    </row>
-    <row r="86" spans="12:12">
+      <c r="Q85" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="12:17">
       <c r="L86" s="63"/>
-    </row>
-    <row r="87" spans="12:12">
+      <c r="Q86" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="12:17">
       <c r="L87" s="63"/>
-    </row>
-    <row r="88" spans="12:12">
+      <c r="Q87" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="12:17">
       <c r="L88" s="63"/>
-    </row>
-    <row r="89" spans="12:12">
+      <c r="Q88" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="12:17">
       <c r="L89" s="63"/>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="38">
-        <v>1</v>
-      </c>
-      <c r="B90" s="39">
-        <v>3</v>
-      </c>
-      <c r="C90" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="G90" s="41" t="s">
-        <v>236</v>
-      </c>
+      <c r="Q89" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="12:17">
+      <c r="L90" s="63"/>
       <c r="Q90" s="44">
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="28.8" spans="1:17">
+    <row r="91" spans="1:17">
       <c r="A91" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" s="39">
         <v>3</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q91" s="44">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:17">
+    <row r="92" ht="27" spans="1:17">
+      <c r="A92" s="38">
+        <v>2</v>
+      </c>
+      <c r="B92" s="39">
+        <v>3</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>246</v>
+      </c>
       <c r="G92" s="41" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q92" s="44">
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="28.8" spans="7:17">
+    <row r="93" spans="7:17">
       <c r="G93" s="41" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q93" s="44">
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="43.2" spans="1:17">
-      <c r="A94" s="38">
-        <v>1</v>
-      </c>
-      <c r="C94" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="E94" s="40" t="s">
-        <v>242</v>
-      </c>
+    <row r="94" spans="7:17">
       <c r="G94" s="41" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q94" s="44">
         <v>0</v>
       </c>
     </row>
+    <row r="95" ht="40.5" spans="1:17">
+      <c r="A95" s="38">
+        <v>1</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="G95" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q95" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="38" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:R94">
+  <autoFilter ref="A1:R96">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -8597,32 +8940,32 @@
       </etc:autoFilterAnalysis>
     </extLst>
   </autoFilter>
-  <conditionalFormatting sqref="C1:D1 C2:C18 D2 D5:D18 C90:D92 C94:D94 C125:D1048576">
+  <conditionalFormatting sqref="C1:D1 C2:C18 D2 D5:D18 C91:D93 C126:D1048576 C95:D95">
     <cfRule type="containsText" dxfId="0" priority="12" operator="between" text="j1">
       <formula>NOT(ISERROR(SEARCH("j1",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J31 J32 J33 J38 J39 J40 J41 J42 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J80 J81 J3:J18 J20:J30 J34:J37 J65:J79 J82:J89 J90:J94 J125:J1048576">
-      <formula1>"单位,特殊"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="Q16 Q17 Q18 Q38 Q39 Q40 Q41 Q42 Q44 Q45 Q46 Q47 Q48 Q49 Q50 Q51 Q52 Q53 Q54 Q55 Q56 Q57 Q58 Q59 Q60 Q61 Q62 Q63 Q64 Q80 Q81 Q3:Q4 Q5:Q8 Q9:Q12 Q13:Q15 Q20:Q26 Q27:Q34 Q35:Q37 Q65:Q79 Q82:Q89 Q90:Q91 Q92:Q94 Q125:Q1048576">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="Q16 Q17 Q18 Q38 Q39 Q40 Q41 Q42 Q44 Q45 Q46 Q47 Q48 Q49 Q50 Q51 Q52 Q53 Q54 Q55 Q56 Q57 Q58 Q59 Q60 Q61 Q62 Q63 Q64 Q65 Q92 Q3:Q4 Q5:Q8 Q9:Q12 Q13:Q15 Q20:Q26 Q27:Q34 Q35:Q37 Q66:Q91 Q93:Q95 Q126:Q1048576">
       <formula1>IF(TRUE,OR(Q3=0,Q3=1),"Checkbox")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K18 K31 K32 K38 K39 K40 K41 K42 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K3:K17 K20:K30 K33:K37 K65:K66 K67:K81 K82:K89 K90:K94 K125:K1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K18 K31 K32 K38 K39 K40 K41 K42 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K78 K3:K17 K20:K30 K33:K37 K65:K66 K67:K77 K79:K82 K83:K90 K91:K95 K126:K1048576">
       <formula1>"中立,道教,佛教,科学,神道教"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N18 N31 N32 N38 N39 N40 N41 N42 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N80 N81 N3:N17 N20:N30 N33:N37 N65:N79 N82:N89 N90:N94 N125:N1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N18 N31 N32 N38 N39 N40 N41 N42 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N78 N3:N17 N20:N30 N33:N37 N66:N77 N79:N82 N83:N90 N91:N95 N126:N1048576">
       <formula1>"我方,敌方"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L24 L31 L32 L33 L34 L38 L39 L40 L41 L42 L44 L45 L46 L47 L48 L49 L50 L51 L52 L58 L59 L64 L65 L66 L67 L68 L69 L70 L76 L77 L3:L18 L20:L23 L25:L30 L35:L37 L53:L54 L55:L57 L60:L63 L71:L72 L73:L75 L78:L79 L80:L81 L82:L89 L91:L94 L125:L1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L24 L31 L32 L33 L34 L38 L39 L40 L41 L42 L44 L45 L46 L47 L48 L49 L50 L51 L52 L58 L59 L64 L65 L66 L67 L68 L69 L70 L76 L77 L78 L3:L18 L20:L23 L25:L30 L35:L37 L53:L54 L55:L57 L60:L63 L71:L72 L73:L75 L79:L80 L81:L82 L83:L90 L92:L95 L126:L1048576">
       <formula1>"领袖,金,银,铜"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="M30 M31 M32 M38 M39 M40 M41 M42 M44 M45 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M57 M58 M59 M60 M61 M62 M63 M64 M80 M81 M3:M18 M20:M24 M25:M29 M33:M37 M65:M79 M82:M89 M90:M94 M125:M1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="M30 M31 M32 M38 M39 M40 M41 M42 M44 M45 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M57 M58 M59 M60 M61 M62 M63 M64 M65 M66 M70 M71 M77 M78 M79 M80 M81 M82 M3:M18 M20:M24 M25:M29 M33:M37 M67:M69 M72:M76 M83:M90 M91:M95 M126:M1048576">
       <formula1>"水,火,风,土,任意"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="P31 P32 P38 P39 P40 P41 P42 P44 P45 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P80 P81 P3:P18 P20:P30 P33:P37 P65:P79 P82:P89 P90:P94 P125:P1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="P31 P32 P38 P39 P40 P41 P42 P44 P45 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P3:P18 P20:P30 P33:P37 P66:P82 P83:P90 P91:P95 P126:P1048576">
       <formula1>"正体,衍生"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J31 J32 J33 J38 J39 J40 J41 J42 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J78 J79 J80 J81 J82 J3:J18 J20:J30 J34:J37 J65:J71 J72:J73 J74:J77 J83:J90 J91:J95 J126:J1048576">
+      <formula1>"单位,特殊"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8639,14 +8982,14 @@
       <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="9" max="9" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -8657,66 +9000,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="12" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -8741,12 +9084,12 @@
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.1111111111111" style="14" customWidth="1"/>
+    <col min="1" max="1" width="23.1083333333333" style="14" customWidth="1"/>
     <col min="2" max="3" width="42.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="17.1296296296296" style="14" customWidth="1"/>
-    <col min="5" max="6" width="33.1111111111111" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.1333333333333" style="14" customWidth="1"/>
+    <col min="5" max="6" width="33.1083333333333" style="14" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -8755,216 +9098,216 @@
         <v>11</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="35" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="35" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>265</v>
-      </c>
       <c r="D4" s="35" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="35" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="35" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="35" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="35" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="37" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="35" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -8980,232 +9323,232 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="35" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="35" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="35" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="35" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="35" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="35" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="35" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="35" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>316</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>306</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="35" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="35" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G24" s="35"/>
     </row>
@@ -9217,428 +9560,428 @@
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" ht="28.8" spans="1:5">
+    <row r="26" ht="27" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" ht="28.8" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" ht="28.8" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" ht="28.8" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="33" ht="28.8" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:5">
       <c r="A33" s="14" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="34" ht="28.8" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:5">
       <c r="A34" s="14" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="37" ht="72" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" ht="67.5" spans="1:5">
       <c r="A37" s="14" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" ht="72" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" ht="67.5" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="14" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="40" ht="57.6" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" ht="54" spans="1:5">
       <c r="A40" s="14" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" ht="28.8" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:5">
       <c r="A41" s="14" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="14" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="14" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="14" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="14" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" ht="28.8" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="1:5">
       <c r="A47" s="14" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="14" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="49" ht="28.8" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" ht="27" spans="1:5">
       <c r="A49" s="14" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="50" ht="28.8" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="1:5">
       <c r="A50" s="14" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="14" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="14" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="14" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="14" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
     </row>
-    <row r="57" ht="43.2" spans="1:5">
+    <row r="57" ht="27" spans="1:5">
       <c r="A57" s="14" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="58" ht="28.8" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" ht="27" spans="1:5">
       <c r="A58" s="14" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -9647,366 +9990,366 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="35" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C60" s="35"/>
       <c r="E60" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F60" s="35"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="35" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C61" s="35"/>
       <c r="E61" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F61" s="35"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="35" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C62" s="35"/>
       <c r="E62" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="35" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C63" s="35"/>
       <c r="E63" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="35" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C64" s="35"/>
       <c r="E64" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F64" s="35"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="35" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F65" s="35"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="35" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F66" s="35"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="35" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C67" s="35"/>
       <c r="E67" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F67" s="35"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="35" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C68" s="35"/>
       <c r="E68" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F68" s="35"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="35" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F69" s="35"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="35" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C70" s="35"/>
       <c r="E70" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="35" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F71" s="35"/>
     </row>
-    <row r="73" ht="28.8" spans="1:2">
+    <row r="73" ht="27" spans="1:2">
       <c r="A73" s="14" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="14" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="75" ht="28.8" spans="1:2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" ht="27" spans="1:2">
       <c r="A75" s="14" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="14" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="77" ht="28.8" spans="1:2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="14" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="14" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="79" ht="28.8" spans="1:2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" ht="27" spans="1:2">
       <c r="A79" s="14" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="80" ht="28.8" spans="1:2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" ht="27" spans="1:2">
       <c r="A80" s="14" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="81" ht="28.8" spans="1:2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" ht="27" spans="1:2">
       <c r="A81" s="14" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="14" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="14" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="84" ht="72" spans="1:2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="84" ht="67.5" spans="1:2">
       <c r="A84" s="14" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="85" ht="72" spans="1:2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="85" ht="67.5" spans="1:2">
       <c r="A85" s="14" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="14" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="87" ht="57.6" spans="1:2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" ht="54" spans="1:2">
       <c r="A87" s="14" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="88" ht="28.8" spans="1:2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" ht="27" spans="1:2">
       <c r="A88" s="14" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="14" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="14" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="14" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="14" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="94" ht="28.8" spans="1:2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" ht="27" spans="1:2">
       <c r="A94" s="14" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="14" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="96" ht="28.8" spans="1:2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="96" ht="27" spans="1:2">
       <c r="A96" s="14" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="97" ht="28.8" spans="1:2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="97" ht="27" spans="1:2">
       <c r="A97" s="14" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="99" ht="43.2" spans="1:2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" ht="27" spans="1:2">
       <c r="A99" s="14" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="100" ht="28.8" spans="1:2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="100" ht="27" spans="1:2">
       <c r="A100" s="14" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -10027,15 +10370,15 @@
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="8.12962962962963" customWidth="1"/>
+    <col min="2" max="2" width="8.13333333333333" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="10.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="5.87962962962963" customWidth="1"/>
-    <col min="6" max="6" width="26.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="3.62962962962963" customWidth="1"/>
+    <col min="4" max="4" width="10.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="5.88333333333333" customWidth="1"/>
+    <col min="6" max="6" width="26.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="3.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10043,22 +10386,22 @@
         <v>11</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10067,14 +10410,14 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="G2" s="26"/>
     </row>
@@ -10082,14 +10425,14 @@
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="G3" s="26"/>
     </row>
@@ -10097,10 +10440,10 @@
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="G4" s="26"/>
     </row>
@@ -10108,14 +10451,14 @@
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="G5" s="26"/>
     </row>
@@ -10123,12 +10466,12 @@
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="G6" s="26"/>
     </row>
@@ -10136,14 +10479,14 @@
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="G7" s="26"/>
     </row>
@@ -10154,7 +10497,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="G8" s="26"/>
     </row>
@@ -10196,101 +10539,101 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="26" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="28"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="28"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="28"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="28"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="G18" s="26"/>
     </row>
@@ -10298,12 +10641,12 @@
       <c r="A19" s="28"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G19" s="26"/>
     </row>
@@ -10311,12 +10654,12 @@
       <c r="A20" s="28"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="G20" s="26"/>
     </row>
@@ -10324,12 +10667,12 @@
       <c r="A21" s="28"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="G21" s="26"/>
     </row>
@@ -10337,12 +10680,12 @@
       <c r="A22" s="28"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="G22" s="26"/>
     </row>
@@ -10350,80 +10693,80 @@
       <c r="A23" s="28"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="29"/>
       <c r="B24" s="26" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C24" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="29"/>
       <c r="B25" s="26" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="28"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="G27" s="26"/>
     </row>
@@ -10431,12 +10774,12 @@
       <c r="A28" s="28"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="G28" s="26"/>
     </row>
@@ -10444,51 +10787,51 @@
       <c r="A29" s="28"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="28"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -10513,138 +10856,138 @@
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="26" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C38" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="26" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="26" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="26" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>453</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -10723,112 +11066,112 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="8.88888888888889" style="14"/>
-    <col min="4" max="4" width="19.8796296296296" style="14" customWidth="1"/>
+    <col min="1" max="3" width="8.89166666666667" style="14"/>
+    <col min="4" max="4" width="19.8833333333333" style="14" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2" ht="43.2" spans="1:5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="26" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" s="26" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="14" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="4:5">
       <c r="D11" s="14" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -10847,219 +11190,219 @@
   <sheetPr/>
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="47.6111111111111" customWidth="1"/>
+    <col min="2" max="2" width="47.6083333333333" customWidth="1"/>
     <col min="4" max="4" width="91.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="84.75" customWidth="1"/>
-    <col min="7" max="7" width="50.1203703703704" customWidth="1"/>
-    <col min="12" max="12" width="18.962962962963" customWidth="1"/>
+    <col min="7" max="7" width="50.1166666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.9666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="2" ht="43.2" spans="1:5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:5">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:5">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:5">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="43.2" spans="1:5">
+    <row r="7" ht="40.5" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" ht="43.2" spans="1:5">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="28.8" spans="1:5">
+    <row r="10" ht="27" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="11" ht="57.6" spans="1:5">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" ht="103.5" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11067,126 +11410,126 @@
         <v>218</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>565</v>
+        <v>574</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>566</v>
+      <c r="D18" s="4" t="s">
+        <v>576</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="19" ht="43.2" spans="1:5">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="1:5">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="5:5">
@@ -11203,155 +11546,155 @@
         <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C38" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C39" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C40" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="C41" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="C42" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="C44" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B51" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B53" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="55" ht="72" spans="1:6">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="55" ht="67.5" spans="1:6">
       <c r="A55" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="56" ht="57.6" spans="3:5">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="56" ht="54" spans="3:5">
       <c r="C56" s="11" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B61" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B62" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B63" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B64" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -11359,144 +11702,144 @@
         <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B66" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B68" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B72" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="78" ht="72" spans="2:2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="78" ht="67.5" spans="2:2">
       <c r="B78" s="11" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="79" ht="28.8" spans="2:2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="79" ht="27" spans="2:2">
       <c r="B79" s="11" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="80" ht="57.6" spans="2:2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="80" ht="54" spans="2:2">
       <c r="B80" s="11" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="81" ht="72" spans="2:2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="81" ht="67.5" spans="2:2">
       <c r="B81" s="11" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="87" ht="187.2" spans="2:2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" ht="175.5" spans="2:2">
       <c r="B87" s="11" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="C94" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="D94" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E94" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="D95" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E95" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D96" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E96" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -11506,23 +11849,23 @@
     <row r="98" spans="1:3">
       <c r="A98" s="12"/>
       <c r="B98" s="12" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C98" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="D99" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="E99" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -11532,24 +11875,24 @@
     <row r="101" spans="1:3">
       <c r="A101" s="12"/>
       <c r="B101" s="12" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="C101" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -11563,383 +11906,383 @@
     <row r="106" spans="1:3">
       <c r="A106" s="12"/>
       <c r="B106" s="12" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="C106" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="13" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="B110" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="C110" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="D110" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="E110" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="F110" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="G110" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="111" ht="43.2" spans="1:7">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="111" ht="40.5" spans="1:7">
       <c r="A111" s="13" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="B111" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="C111" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="D111" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="E111" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="13" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="B112" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="C112" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="D112" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="13" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B113" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C113" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="D113" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="E113" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="F113" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="14" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="14"/>
       <c r="B116" s="17" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="14"/>
       <c r="B117" s="19" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C117" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="14"/>
       <c r="B118" s="20" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C118" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="14"/>
       <c r="B119" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="14" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="E120" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="14"/>
       <c r="B121" s="16" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="14"/>
       <c r="B122" s="23" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="C122" s="24"/>
       <c r="D122" s="23" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="E122" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="14" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B123" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="C123" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="14"/>
       <c r="B124" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="C124" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="14"/>
       <c r="B125" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="C125" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="14"/>
       <c r="B126" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="C126" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="14"/>
       <c r="B127" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="C127" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="14"/>
       <c r="B128" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="C128" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="14"/>
       <c r="B129" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="C129" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="14"/>
       <c r="B130" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="C130" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="14"/>
       <c r="B131" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="C131" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="14" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="B132" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C132" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="14"/>
       <c r="B133" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="C133" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="14"/>
       <c r="B134" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C134" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="14"/>
       <c r="B135" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C135" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="14"/>
       <c r="B136" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="C136" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="14"/>
       <c r="B137" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C137" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="14"/>
       <c r="B138" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C138" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="14"/>
       <c r="B139" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C139" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="14"/>
       <c r="B140" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C140" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="14" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B141" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C141" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="14"/>
       <c r="B142" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="C142" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="14"/>
       <c r="B143" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="C143" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="14"/>
       <c r="B144" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C144" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="14"/>
       <c r="B145" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C145" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -11950,7 +12293,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="14" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B149" t="s">
         <v>31</v>
@@ -12012,19 +12355,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="B1" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
+++ b/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="797" activeTab="3"/>
+    <workbookView windowWidth="17130" windowHeight="9150" tabRatio="797" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="必读！合作条约" sheetId="18" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="合作名单" sheetId="21" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CardData-Multi'!$A$1:$R$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CardData-Multi'!$A$1:$R$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">设定随笔!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="775">
   <si>
     <t>代表卡牌信息，分为单人模式卡牌和多人模式卡牌
 卡牌ID的生成方式 模式（单人：1或多人：2+系列（00~99）+位阶（领袖0，金1，银2，铜3）+第几张牌（000~999））
@@ -816,6 +816,15 @@
   </si>
   <si>
     <t>风见幽香</t>
+  </si>
+  <si>
+    <t>远古的骗术</t>
+  </si>
+  <si>
+    <t>依次完成以下效果（不满足发动条件则跳过）
+从手牌中打出一张牌
+从场上回收一张牌至卡组底端
+从卡组抽取一张牌</t>
   </si>
   <si>
     <t>stage</t>
@@ -2445,10 +2454,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
   </numFmts>
   <fonts count="31">
@@ -2538,8 +2547,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2554,29 +2580,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2591,30 +2611,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2622,25 +2626,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2652,7 +2654,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2669,14 +2670,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2853,7 +2862,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2865,49 +2964,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2919,103 +3018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3148,6 +3157,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3157,17 +3181,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3187,37 +3216,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3237,11 +3240,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3253,10 +3262,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3265,133 +3274,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4082,12 +4091,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="60.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" spans="1:2">
+    <row r="1" ht="67.5" spans="1:2">
       <c r="A1" s="103"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -4105,7 +4114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:2">
+    <row r="9" ht="27" spans="1:2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4132,24 +4141,24 @@
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="11.8888888888889" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21.4259259259259" style="14" customWidth="1"/>
-    <col min="5" max="5" width="25.8703703703704" style="31" customWidth="1"/>
-    <col min="6" max="6" width="35.2037037037037" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.8916666666667" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.425" style="14" customWidth="1"/>
+    <col min="5" max="5" width="25.8666666666667" style="31" customWidth="1"/>
+    <col min="6" max="6" width="35.2" style="31" customWidth="1"/>
     <col min="7" max="7" width="9" style="84"/>
-    <col min="8" max="8" width="9.65740740740741" style="84" customWidth="1"/>
+    <col min="8" max="8" width="9.65833333333333" style="84" customWidth="1"/>
     <col min="9" max="9" width="9" style="84"/>
-    <col min="10" max="10" width="12.537037037037" style="84" customWidth="1"/>
+    <col min="10" max="10" width="12.5333333333333" style="84" customWidth="1"/>
     <col min="11" max="11" width="9" style="84"/>
     <col min="12" max="12" width="13.1666666666667" style="84" customWidth="1"/>
-    <col min="13" max="13" width="10.8796296296296" style="14" customWidth="1"/>
-    <col min="14" max="14" width="17.9259259259259" style="84" customWidth="1"/>
-    <col min="15" max="15" width="13.1944444444444" style="14" customWidth="1"/>
-    <col min="16" max="16" width="15.5555555555556" style="85" customWidth="1"/>
-    <col min="17" max="17" width="20.8888888888889" style="86" customWidth="1"/>
+    <col min="13" max="13" width="10.8833333333333" style="14" customWidth="1"/>
+    <col min="14" max="14" width="17.925" style="84" customWidth="1"/>
+    <col min="15" max="15" width="13.1916666666667" style="14" customWidth="1"/>
+    <col min="16" max="16" width="15.5583333333333" style="85" customWidth="1"/>
+    <col min="17" max="17" width="20.8916666666667" style="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4205,7 +4214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="43.2" spans="1:17">
+    <row r="2" customFormat="1" ht="40.5" spans="1:17">
       <c r="A2" s="90">
         <v>1</v>
       </c>
@@ -4256,7 +4265,7 @@
       </c>
       <c r="Q2" s="102"/>
     </row>
-    <row r="3" customFormat="1" ht="28.8" spans="1:17">
+    <row r="3" customFormat="1" ht="27" spans="1:17">
       <c r="A3" s="90">
         <v>1</v>
       </c>
@@ -4352,7 +4361,7 @@
       </c>
       <c r="Q4" s="102"/>
     </row>
-    <row r="5" customFormat="1" ht="28.8" spans="1:17">
+    <row r="5" customFormat="1" ht="27" spans="1:17">
       <c r="A5" s="90">
         <v>3</v>
       </c>
@@ -4399,7 +4408,7 @@
       </c>
       <c r="Q5" s="102"/>
     </row>
-    <row r="6" customFormat="1" ht="43.2" spans="1:17">
+    <row r="6" customFormat="1" ht="40.5" spans="1:17">
       <c r="A6" s="90">
         <v>4</v>
       </c>
@@ -4589,7 +4598,7 @@
       </c>
       <c r="Q9" s="102"/>
     </row>
-    <row r="10" customFormat="1" ht="28.8" spans="1:17">
+    <row r="10" customFormat="1" ht="27" spans="1:17">
       <c r="A10" s="90">
         <v>4</v>
       </c>
@@ -4824,7 +4833,7 @@
       </c>
       <c r="Q14" s="102"/>
     </row>
-    <row r="15" customFormat="1" ht="28.8" spans="1:17">
+    <row r="15" customFormat="1" ht="27" spans="1:17">
       <c r="A15" s="90">
         <v>3</v>
       </c>
@@ -4871,7 +4880,7 @@
       </c>
       <c r="Q15" s="102"/>
     </row>
-    <row r="16" customFormat="1" ht="43.2" spans="1:17">
+    <row r="16" customFormat="1" ht="40.5" spans="1:17">
       <c r="A16" s="90">
         <v>4</v>
       </c>
@@ -5573,26 +5582,26 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J6 J11 J12 J17 J2:J5 J7:J10 J13:J16 J18:J1048576">
-      <formula1>"领袖,金,银,铜"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N2:N1048576">
+      <formula1>"正体,衍生"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="I2:I1048576">
       <formula1>"中立,道教,佛教,科学,神道教"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="H2:H1048576">
+      <formula1>"单位,特殊"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J6 J11 J12 J17 J2:J5 J7:J10 J13:J16 J18:J1048576">
+      <formula1>"领袖,金,银,铜"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="P22 P23 P24 P25 P26 P29 P30 P31 P41 P1048576 P2:P3 P4:P7 P8:P11 P12:P14 P15:P16 P17:P21 P27:P28 P32:P35 P36:P40 P42:P53 P54:P70 P71:P1048566 P1048567:P1048569 P1048570:P1048575">
       <formula1>IF(TRUE,OR(P2=0,P2=1),"Checkbox")</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L2:L1048576">
-      <formula1>"我方,敌方"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="H2:H1048576">
-      <formula1>"单位,特殊"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K2:K1048576">
       <formula1>"水,火,风,土,任意"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N2:N1048576">
-      <formula1>"正体,衍生"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L2:L1048576">
+      <formula1>"我方,敌方"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5606,34 +5615,34 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="8.12962962962963" style="39" customWidth="1"/>
-    <col min="3" max="3" width="25.3518518518519" style="38" customWidth="1"/>
-    <col min="4" max="4" width="25.3518518518519" style="38" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.4537037037037" style="40" customWidth="1"/>
-    <col min="6" max="6" width="34.4537037037037" style="38" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="41.4074074074074" style="41" customWidth="1"/>
-    <col min="8" max="8" width="37.5185185185185" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7314814814815" style="40" customWidth="1"/>
-    <col min="10" max="10" width="9.65740740740741" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.13333333333333" style="39" customWidth="1"/>
+    <col min="3" max="3" width="25.35" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.35" style="38" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.45" style="40" customWidth="1"/>
+    <col min="6" max="6" width="34.45" style="38" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="41.4083333333333" style="41" customWidth="1"/>
+    <col min="8" max="8" width="37.5166666666667" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7333333333333" style="40" customWidth="1"/>
+    <col min="10" max="10" width="9.65833333333333" style="38" customWidth="1"/>
     <col min="11" max="11" width="9" style="42"/>
-    <col min="12" max="12" width="12.537037037037" style="43" customWidth="1"/>
+    <col min="12" max="12" width="12.5333333333333" style="43" customWidth="1"/>
     <col min="13" max="13" width="9" style="38"/>
     <col min="14" max="14" width="13.1666666666667" style="38" customWidth="1"/>
-    <col min="15" max="15" width="10.8796296296296" style="38" customWidth="1"/>
-    <col min="16" max="16" width="17.9259259259259" style="38" customWidth="1"/>
-    <col min="17" max="17" width="15.5555555555556" style="44" customWidth="1"/>
-    <col min="18" max="18" width="20.8888888888889" style="45" customWidth="1"/>
+    <col min="15" max="15" width="10.8833333333333" style="38" customWidth="1"/>
+    <col min="16" max="16" width="17.925" style="38" customWidth="1"/>
+    <col min="17" max="17" width="15.5583333333333" style="44" customWidth="1"/>
+    <col min="18" max="18" width="20.8916666666667" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5712,7 +5721,7 @@
       <c r="Q2" s="70"/>
       <c r="R2" s="71"/>
     </row>
-    <row r="3" ht="43.2" spans="1:17">
+    <row r="3" ht="27" spans="1:17">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -5759,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="57.6" spans="1:18">
+    <row r="4" ht="54" spans="1:18">
       <c r="A4" s="38">
         <v>1</v>
       </c>
@@ -5853,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:17">
+    <row r="6" ht="27" spans="1:17">
       <c r="A6" s="38">
         <v>3</v>
       </c>
@@ -5894,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="43.2" spans="1:17">
+    <row r="7" ht="40.5" spans="1:17">
       <c r="A7" s="38">
         <v>4</v>
       </c>
@@ -5935,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="1:17">
+    <row r="8" ht="40.5" spans="1:17">
       <c r="A8" s="38">
         <v>1</v>
       </c>
@@ -5976,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:17">
+    <row r="9" ht="40.5" spans="1:17">
       <c r="A9" s="38">
         <v>2</v>
       </c>
@@ -6017,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:17">
+    <row r="10" ht="40.5" spans="1:17">
       <c r="A10" s="38">
         <v>3</v>
       </c>
@@ -6058,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:17">
+    <row r="11" ht="27" spans="1:17">
       <c r="A11" s="38">
         <v>4</v>
       </c>
@@ -6190,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:17">
+    <row r="14" ht="27" spans="1:17">
       <c r="A14" s="38">
         <v>1</v>
       </c>
@@ -6231,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:17">
+    <row r="15" ht="27" spans="1:17">
       <c r="A15" s="38">
         <v>2</v>
       </c>
@@ -6275,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:17">
+    <row r="16" ht="27" spans="1:17">
       <c r="A16" s="38">
         <v>3</v>
       </c>
@@ -6316,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:17">
+    <row r="17" ht="27" spans="1:17">
       <c r="A17" s="38">
         <v>4</v>
       </c>
@@ -6418,7 +6427,7 @@
       <c r="Q19" s="72"/>
       <c r="R19" s="73"/>
     </row>
-    <row r="20" ht="43.2" spans="1:17">
+    <row r="20" ht="40.5" spans="1:17">
       <c r="A20" s="38">
         <v>1</v>
       </c>
@@ -6500,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:17">
+    <row r="22" ht="27" spans="1:17">
       <c r="A22" s="38">
         <v>2</v>
       </c>
@@ -6623,7 +6632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="28.8" spans="1:17">
+    <row r="25" ht="27" spans="1:17">
       <c r="A25" s="38">
         <v>1</v>
       </c>
@@ -6664,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="72" spans="1:17">
+    <row r="26" ht="67.5" spans="1:17">
       <c r="A26" s="38">
         <v>2</v>
       </c>
@@ -6705,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:17">
+    <row r="27" ht="27" spans="1:17">
       <c r="A27" s="38">
         <v>3</v>
       </c>
@@ -6746,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="43.2" spans="1:17">
+    <row r="28" ht="40.5" spans="1:17">
       <c r="A28" s="38">
         <v>4</v>
       </c>
@@ -6787,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:17">
+    <row r="29" ht="27" spans="1:17">
       <c r="A29" s="38">
         <v>5</v>
       </c>
@@ -6828,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="28.8" spans="1:17">
+    <row r="30" ht="27" spans="1:17">
       <c r="A30" s="38">
         <v>6</v>
       </c>
@@ -6998,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="28.8" spans="1:17">
+    <row r="34" ht="27" spans="1:17">
       <c r="A34" s="38">
         <v>2</v>
       </c>
@@ -7165,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="28.8" spans="1:17">
+    <row r="38" ht="27" spans="1:17">
       <c r="A38" s="38">
         <v>6</v>
       </c>
@@ -7206,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="28.8" spans="1:17">
+    <row r="39" ht="27" spans="1:17">
       <c r="A39" s="38">
         <v>7</v>
       </c>
@@ -7308,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="57.6" spans="1:17">
+    <row r="42" ht="54" spans="1:17">
       <c r="A42" s="38">
         <v>2</v>
       </c>
@@ -7372,7 +7381,7 @@
       <c r="Q43" s="55"/>
       <c r="R43" s="56"/>
     </row>
-    <row r="44" ht="43.2" spans="1:17">
+    <row r="44" ht="40.5" spans="1:17">
       <c r="A44" s="38">
         <v>1</v>
       </c>
@@ -7416,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="28.8" spans="1:17">
+    <row r="45" ht="27" spans="1:17">
       <c r="A45" s="38">
         <v>1</v>
       </c>
@@ -7460,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="28.8" spans="1:17">
+    <row r="46" ht="27" spans="1:17">
       <c r="A46" s="38">
         <v>1</v>
       </c>
@@ -7524,7 +7533,7 @@
       <c r="Q47" s="76"/>
       <c r="R47" s="77"/>
     </row>
-    <row r="48" ht="43.2" spans="1:17">
+    <row r="48" ht="40.5" spans="1:17">
       <c r="A48" s="38">
         <v>1</v>
       </c>
@@ -7577,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="43.2" spans="1:17">
+    <row r="49" ht="40.5" spans="1:17">
       <c r="A49" s="38">
         <v>1</v>
       </c>
@@ -7618,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="28.8" spans="1:17">
+    <row r="50" ht="27" spans="1:17">
       <c r="A50" s="38">
         <v>2</v>
       </c>
@@ -7659,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="28.8" spans="1:17">
+    <row r="51" ht="27" spans="1:17">
       <c r="A51" s="38">
         <v>3</v>
       </c>
@@ -7700,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="72" spans="1:17">
+    <row r="52" ht="54" spans="1:17">
       <c r="A52" s="38">
         <v>4</v>
       </c>
@@ -7741,7 +7750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="28.8" spans="1:17">
+    <row r="53" ht="27" spans="1:17">
       <c r="A53" s="38">
         <v>1</v>
       </c>
@@ -7824,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="28.8" spans="1:17">
+    <row r="55" ht="27" spans="1:17">
       <c r="A55" s="38">
         <v>3</v>
       </c>
@@ -7906,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="28.8" spans="1:17">
+    <row r="57" ht="27" spans="1:17">
       <c r="A57" s="38">
         <v>5</v>
       </c>
@@ -7950,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="28.8" spans="1:17">
+    <row r="58" ht="27" spans="1:17">
       <c r="A58" s="38">
         <v>6</v>
       </c>
@@ -7991,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="57.6" spans="1:18">
+    <row r="59" ht="54" spans="1:18">
       <c r="A59" s="38">
         <v>1</v>
       </c>
@@ -8035,7 +8044,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" ht="72" spans="1:18">
+    <row r="60" ht="54" spans="1:18">
       <c r="A60" s="38">
         <v>2</v>
       </c>
@@ -8079,7 +8088,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" ht="28.8" spans="1:17">
+    <row r="61" ht="27" spans="1:17">
       <c r="A61" s="38">
         <v>3</v>
       </c>
@@ -8120,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="28.8" spans="1:17">
+    <row r="62" ht="27" spans="1:17">
       <c r="A62" s="38">
         <v>4</v>
       </c>
@@ -8161,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="28.8" spans="1:17">
+    <row r="63" ht="27" spans="1:17">
       <c r="A63" s="38">
         <v>5</v>
       </c>
@@ -8202,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" ht="43.2" spans="1:17">
+    <row r="64" ht="40.5" spans="1:17">
       <c r="A64" s="38">
         <v>6</v>
       </c>
@@ -8348,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="43.2" spans="1:17">
+    <row r="68" ht="40.5" spans="1:17">
       <c r="A68" s="38">
         <v>3</v>
       </c>
@@ -8412,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="28.8" spans="1:17">
+    <row r="70" ht="27" spans="1:17">
       <c r="A70" s="38">
         <v>5</v>
       </c>
@@ -8456,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="28.8" spans="1:17">
+    <row r="71" ht="27" spans="1:17">
       <c r="A71" s="38">
         <v>6</v>
       </c>
@@ -8497,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="28.8" spans="1:17">
+    <row r="72" ht="27" spans="1:17">
       <c r="A72" s="38">
         <v>7</v>
       </c>
@@ -8535,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="28.8" spans="1:17">
+    <row r="73" ht="27" spans="1:17">
       <c r="A73" s="38">
         <v>8</v>
       </c>
@@ -8677,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="28.8" spans="1:17">
+    <row r="78" ht="27" spans="1:17">
       <c r="A78" s="38">
         <v>13</v>
       </c>
@@ -8715,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="28.8" spans="1:17">
+    <row r="79" ht="27" spans="1:17">
       <c r="A79" s="38">
         <v>14</v>
       </c>
@@ -8829,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="28.8" spans="1:17">
+    <row r="82" ht="27" spans="1:17">
       <c r="A82" s="38">
         <v>17</v>
       </c>
@@ -8932,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="28.8" spans="1:17">
+    <row r="92" ht="27" spans="1:17">
       <c r="A92" s="38">
         <v>2</v>
       </c>
@@ -8965,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="43.2" spans="1:17">
+    <row r="95" ht="40.5" spans="1:17">
       <c r="A95" s="38">
         <v>1</v>
       </c>
@@ -8987,9 +8996,17 @@
         <v>253</v>
       </c>
     </row>
+    <row r="97" ht="54" spans="3:7">
+      <c r="C97" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G97" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:R96">
+  <autoFilter ref="A1:R97">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -9009,26 +9026,26 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K18 K31 K32 K38 K39 K40 K41 K42 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K78 K3:K17 K20:K30 K33:K37 K65:K66 K67:K77 K79:K82 K83:K90 K91:K95 K126:K1048576">
-      <formula1>"中立,道教,佛教,科学,神道教"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="Q16 Q17 Q18 Q38 Q39 Q40 Q41 Q42 Q44 Q45 Q46 Q47 Q48 Q49 Q50 Q51 Q52 Q53 Q54 Q55 Q56 Q57 Q58 Q59 Q60 Q61 Q62 Q63 Q64 Q65 Q92 Q3:Q4 Q5:Q8 Q9:Q12 Q13:Q15 Q20:Q26 Q27:Q34 Q35:Q37 Q66:Q91 Q93:Q95 Q126:Q1048576">
       <formula1>IF(TRUE,OR(Q3=0,Q3=1),"Checkbox")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="P31 P32 P38 P39 P40 P41 P42 P44 P45 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P3:P18 P20:P30 P33:P37 P66:P82 P83:P90 P91:P95 P126:P1048576">
+      <formula1>"正体,衍生"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J31 J32 J33 J38 J39 J40 J41 J42 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J78 J79 J80 J81 J82 J3:J18 J20:J30 J34:J37 J65:J71 J72:J73 J74:J77 J83:J90 J91:J95 J126:J1048576">
       <formula1>"单位,特殊"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L24 L31 L32 L33 L34 L38 L39 L40 L41 L42 L44 L45 L46 L47 L48 L49 L50 L51 L52 L58 L59 L64 L65 L66 L67 L68 L69 L70 L76 L77 L78 L3:L18 L20:L23 L25:L30 L35:L37 L53:L54 L55:L57 L60:L63 L71:L72 L73:L75 L79:L80 L81:L82 L83:L90 L92:L95 L126:L1048576">
+      <formula1>"领袖,金,银,铜"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K18 K31 K32 K38 K39 K40 K41 K42 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K78 K3:K17 K20:K30 K33:K37 K65:K66 K67:K77 K79:K82 K83:K90 K91:K95 K126:K1048576">
+      <formula1>"中立,道教,佛教,科学,神道教"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N18 N31 N32 N38 N39 N40 N41 N42 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N78 N3:N17 N20:N30 N33:N37 N66:N77 N79:N82 N83:N90 N91:N95 N126:N1048576">
       <formula1>"我方,敌方"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L24 L31 L32 L33 L34 L38 L39 L40 L41 L42 L44 L45 L46 L47 L48 L49 L50 L51 L52 L58 L59 L64 L65 L66 L67 L68 L69 L70 L76 L77 L78 L3:L18 L20:L23 L25:L30 L35:L37 L53:L54 L55:L57 L60:L63 L71:L72 L73:L75 L79:L80 L81:L82 L83:L90 L92:L95 L126:L1048576">
-      <formula1>"领袖,金,银,铜"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="M30 M31 M32 M38 M39 M40 M41 M42 M44 M45 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M57 M58 M59 M60 M61 M62 M63 M64 M65 M66 M70 M71 M77 M78 M79 M80 M81 M82 M3:M18 M20:M24 M25:M29 M33:M37 M67:M69 M72:M76 M83:M90 M91:M95 M126:M1048576">
       <formula1>"水,火,风,土,任意"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="P31 P32 P38 P39 P40 P41 P42 P44 P45 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P3:P18 P20:P30 P33:P37 P66:P82 P83:P90 P91:P95 P126:P1048576">
-      <formula1>"正体,衍生"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9041,14 +9058,14 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="16.5555555555556" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.5583333333333" style="14" customWidth="1"/>
     <col min="3" max="3" width="14" style="14" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="14" customWidth="1"/>
     <col min="5" max="6" width="26.5" style="14" customWidth="1"/>
@@ -9059,209 +9076,209 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B2" s="14">
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>215</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>215</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="29" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B4" s="14">
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>215</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="29" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>215</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B7" s="14">
         <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="29" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B8" s="14">
         <v>2</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>282</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B10" s="14">
         <v>2</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9286,12 +9303,12 @@
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.1111111111111" style="14" customWidth="1"/>
+    <col min="1" max="1" width="23.1083333333333" style="14" customWidth="1"/>
     <col min="2" max="3" width="42.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="17.1296296296296" style="14" customWidth="1"/>
-    <col min="5" max="6" width="33.1111111111111" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.1333333333333" style="14" customWidth="1"/>
+    <col min="5" max="6" width="33.1083333333333" style="14" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -9300,216 +9317,216 @@
         <v>11</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="35" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="35" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="35" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="35" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="35" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="37" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="35" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -9525,232 +9542,232 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="35" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="35" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="35" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>342</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>340</v>
       </c>
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="35" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="35" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="35" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="35" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="35" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="35" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="35" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="35" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G24" s="35"/>
     </row>
@@ -9762,428 +9779,428 @@
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" ht="28.8" spans="1:5">
+    <row r="26" ht="27" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>356</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C27" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" ht="28.8" spans="1:5">
+    </row>
+    <row r="28" ht="27" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C28" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C29" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="30" ht="28.8" spans="1:5">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C30" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C31" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="32" ht="28.8" spans="1:5">
+    </row>
+    <row r="32" ht="27" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C32" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="33" ht="28.8" spans="1:5">
+    </row>
+    <row r="33" ht="27" spans="1:5">
       <c r="A33" s="14" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C33" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="34" ht="28.8" spans="1:5">
+    </row>
+    <row r="34" ht="27" spans="1:5">
       <c r="A34" s="14" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C34" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C35" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>383</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C36" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="37" ht="72" spans="1:5">
+    </row>
+    <row r="37" ht="67.5" spans="1:5">
       <c r="A37" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="38" ht="72" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" ht="67.5" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="40" ht="57.6" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" ht="54" spans="1:5">
       <c r="A40" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" ht="28.8" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:5">
       <c r="A41" s="14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C41" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C42" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C43" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="14" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C45" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>406</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C46" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="47" ht="28.8" spans="1:5">
+    </row>
+    <row r="47" ht="27" spans="1:5">
       <c r="A47" s="14" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C47" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>412</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="14" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C48" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="49" ht="28.8" spans="1:5">
+    </row>
+    <row r="49" ht="27" spans="1:5">
       <c r="A49" s="14" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C49" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="50" ht="28.8" spans="1:5">
+    </row>
+    <row r="50" ht="27" spans="1:5">
       <c r="A50" s="14" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C50" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>421</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="14" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="14" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
     </row>
-    <row r="57" ht="43.2" spans="1:5">
+    <row r="57" ht="27" spans="1:5">
       <c r="A57" s="14" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C57" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="E57" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" ht="28.8" spans="1:5">
+    </row>
+    <row r="58" ht="27" spans="1:5">
       <c r="A58" s="14" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C58" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="E58" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -10192,366 +10209,366 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="35" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C60" s="35"/>
       <c r="E60" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F60" s="35"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="35" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C61" s="35"/>
       <c r="E61" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F61" s="35"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="35" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C62" s="35"/>
       <c r="E62" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="35" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C63" s="35"/>
       <c r="E63" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="35" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C64" s="35"/>
       <c r="E64" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F64" s="35"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="35" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F65" s="35"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="35" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F66" s="35"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="35" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C67" s="35"/>
       <c r="E67" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F67" s="35"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="35" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C68" s="35"/>
       <c r="E68" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F68" s="35"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="35" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F69" s="35"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="35" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C70" s="35"/>
       <c r="E70" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="35" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F71" s="35"/>
     </row>
-    <row r="73" ht="28.8" spans="1:2">
+    <row r="73" ht="27" spans="1:2">
       <c r="A73" s="14" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="14" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="75" ht="28.8" spans="1:2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" ht="27" spans="1:2">
       <c r="A75" s="14" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="14" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="77" ht="28.8" spans="1:2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="14" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="79" ht="28.8" spans="1:2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" ht="27" spans="1:2">
       <c r="A79" s="14" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="80" ht="28.8" spans="1:2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" ht="27" spans="1:2">
       <c r="A80" s="14" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="81" ht="28.8" spans="1:2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" ht="27" spans="1:2">
       <c r="A81" s="14" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="14" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="14" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="84" ht="72" spans="1:2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" ht="67.5" spans="1:2">
       <c r="A84" s="14" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="85" ht="72" spans="1:2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" ht="67.5" spans="1:2">
       <c r="A85" s="14" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="14" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="87" ht="57.6" spans="1:2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" ht="54" spans="1:2">
       <c r="A87" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="88" ht="28.8" spans="1:2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" ht="27" spans="1:2">
       <c r="A88" s="14" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="14" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="14" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="94" ht="28.8" spans="1:2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="94" ht="27" spans="1:2">
       <c r="A94" s="14" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="14" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="96" ht="28.8" spans="1:2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="96" ht="27" spans="1:2">
       <c r="A96" s="14" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="97" ht="28.8" spans="1:2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="97" ht="27" spans="1:2">
       <c r="A97" s="14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="99" ht="43.2" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" ht="27" spans="1:2">
       <c r="A99" s="14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="100" ht="28.8" spans="1:2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="100" ht="27" spans="1:2">
       <c r="A100" s="14" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -10572,15 +10589,15 @@
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="8.12962962962963" customWidth="1"/>
+    <col min="2" max="2" width="8.13333333333333" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="10.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="5.87962962962963" customWidth="1"/>
-    <col min="6" max="6" width="26.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="3.62962962962963" customWidth="1"/>
+    <col min="4" max="4" width="10.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="5.88333333333333" customWidth="1"/>
+    <col min="6" max="6" width="26.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="3.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10588,22 +10605,22 @@
         <v>11</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10612,14 +10629,14 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G2" s="26"/>
     </row>
@@ -10627,14 +10644,14 @@
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G3" s="26"/>
     </row>
@@ -10642,10 +10659,10 @@
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G4" s="26"/>
     </row>
@@ -10653,14 +10670,14 @@
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G5" s="26"/>
     </row>
@@ -10668,12 +10685,12 @@
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G6" s="26"/>
     </row>
@@ -10681,14 +10698,14 @@
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G7" s="26"/>
     </row>
@@ -10699,7 +10716,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G8" s="26"/>
     </row>
@@ -10741,101 +10758,101 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="26" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="28"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>499</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="28"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="28"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="28"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G18" s="26"/>
     </row>
@@ -10843,12 +10860,12 @@
       <c r="A19" s="28"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G19" s="26"/>
     </row>
@@ -10856,12 +10873,12 @@
       <c r="A20" s="28"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G20" s="26"/>
     </row>
@@ -10869,12 +10886,12 @@
       <c r="A21" s="28"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G21" s="26"/>
     </row>
@@ -10882,12 +10899,12 @@
       <c r="A22" s="28"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G22" s="26"/>
     </row>
@@ -10895,80 +10912,80 @@
       <c r="A23" s="28"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="29"/>
       <c r="B24" s="26" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="29"/>
       <c r="B25" s="26" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="28"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G27" s="26"/>
     </row>
@@ -10976,12 +10993,12 @@
       <c r="A28" s="28"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G28" s="26"/>
     </row>
@@ -10989,51 +11006,51 @@
       <c r="A29" s="28"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="28"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -11058,138 +11075,138 @@
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="26" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="26" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="26" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="26" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -11268,112 +11285,112 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="8.88888888888889" style="14"/>
-    <col min="4" max="4" width="19.8796296296296" style="14" customWidth="1"/>
+    <col min="1" max="3" width="8.89166666666667" style="14"/>
+    <col min="4" max="4" width="19.8833333333333" style="14" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="2" ht="43.2" spans="1:5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="26" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" s="26" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="14" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="4:5">
       <c r="D11" s="14" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -11396,215 +11413,215 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="47.6111111111111" customWidth="1"/>
+    <col min="2" max="2" width="47.6083333333333" customWidth="1"/>
     <col min="4" max="4" width="91.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="84.75" customWidth="1"/>
-    <col min="7" max="7" width="50.1203703703704" customWidth="1"/>
-    <col min="12" max="12" width="18.962962962963" customWidth="1"/>
+    <col min="7" max="7" width="50.1166666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.9666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="2" ht="43.2" spans="1:5">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:5">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:5">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:5">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="43.2" spans="1:5">
+    <row r="7" ht="40.5" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="8" ht="43.2" spans="1:5">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="28.8" spans="1:5">
+    <row r="10" ht="27" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="11" ht="57.6" spans="1:5">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" ht="103.5" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11612,41 +11629,41 @@
         <v>218</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -11657,81 +11674,81 @@
         <v>227</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="19" ht="43.2" spans="1:5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="1:5">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="5:5">
@@ -11748,155 +11765,155 @@
         <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C38" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C39" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C40" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C41" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C42" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C44" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B51" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B53" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="55" ht="72" spans="1:6">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="55" ht="67.5" spans="1:6">
       <c r="A55" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="56" ht="57.6" spans="3:5">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="56" ht="54" spans="3:5">
       <c r="C56" s="11" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B61" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B62" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B63" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B64" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -11904,144 +11921,144 @@
         <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B66" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B68" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B72" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="78" ht="72" spans="2:2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="78" ht="67.5" spans="2:2">
       <c r="B78" s="11" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="79" ht="28.8" spans="2:2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="79" ht="27" spans="2:2">
       <c r="B79" s="11" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="80" ht="57.6" spans="2:2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="80" ht="54" spans="2:2">
       <c r="B80" s="11" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="81" ht="72" spans="2:2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="81" ht="67.5" spans="2:2">
       <c r="B81" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="87" ht="187.2" spans="2:2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="87" ht="175.5" spans="2:2">
       <c r="B87" s="11" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C94" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D94" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E94" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" t="s">
+        <v>681</v>
+      </c>
+      <c r="D95" t="s">
         <v>679</v>
       </c>
-      <c r="D95" t="s">
-        <v>677</v>
-      </c>
       <c r="E95" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" t="s">
+        <v>682</v>
+      </c>
+      <c r="D96" t="s">
+        <v>679</v>
+      </c>
+      <c r="E96" t="s">
         <v>680</v>
-      </c>
-      <c r="D96" t="s">
-        <v>677</v>
-      </c>
-      <c r="E96" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -12051,23 +12068,23 @@
     <row r="98" spans="1:3">
       <c r="A98" s="12"/>
       <c r="B98" s="12" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C98" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D99" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E99" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -12077,24 +12094,24 @@
     <row r="101" spans="1:3">
       <c r="A101" s="12"/>
       <c r="B101" s="12" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C101" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -12108,383 +12125,383 @@
     <row r="106" spans="1:3">
       <c r="A106" s="12"/>
       <c r="B106" s="12" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C106" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B110" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C110" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D110" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E110" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F110" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G110" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="111" ht="43.2" spans="1:7">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="111" ht="40.5" spans="1:7">
       <c r="A111" s="13" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B111" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C111" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D111" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E111" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="13" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B112" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C112" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D112" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="13" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B113" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C113" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D113" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E113" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F113" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="14" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="14"/>
       <c r="B116" s="17" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="14"/>
       <c r="B117" s="19" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C117" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="14"/>
       <c r="B118" s="20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C118" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="14"/>
       <c r="B119" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="14" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E120" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="14"/>
       <c r="B121" s="16" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="14"/>
       <c r="B122" s="23" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C122" s="24"/>
       <c r="D122" s="23" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E122" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="14" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B123" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C123" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="14"/>
       <c r="B124" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C124" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="14"/>
       <c r="B125" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C125" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="14"/>
       <c r="B126" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C126" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="14"/>
       <c r="B127" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C127" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="14"/>
       <c r="B128" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C128" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="14"/>
       <c r="B129" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C129" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="14"/>
       <c r="B130" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C130" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="14"/>
       <c r="B131" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C131" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="14" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B132" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C132" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="14"/>
       <c r="B133" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C133" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="14"/>
       <c r="B134" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C134" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="14"/>
       <c r="B135" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C135" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="14"/>
       <c r="B136" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C136" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="14"/>
       <c r="B137" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C137" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="14"/>
       <c r="B138" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C138" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="14"/>
       <c r="B139" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C139" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="14"/>
       <c r="B140" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C140" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="14" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B141" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C141" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="14"/>
       <c r="B142" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C142" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="14"/>
       <c r="B143" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C143" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="14"/>
       <c r="B144" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C144" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="14"/>
       <c r="B145" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C145" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -12495,7 +12512,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="14" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B149" t="s">
         <v>31</v>
@@ -12557,19 +12574,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
+++ b/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17130" windowHeight="9150" tabRatio="797" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="797" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="必读！合作条约" sheetId="18" r:id="rId1"/>
@@ -830,7 +830,7 @@
     <t>stage</t>
   </si>
   <si>
-    <t>LeadId</t>
+    <t>LeadId-Ch</t>
   </si>
   <si>
     <t>StageName-Ch</t>
@@ -2454,10 +2454,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
   </numFmts>
   <fonts count="31">
@@ -2547,35 +2547,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,21 +2562,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2609,9 +2569,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2632,38 +2606,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2677,10 +2630,57 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2862,7 +2862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,7 +2880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2886,25 +2892,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2922,7 +2940,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2934,43 +3000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2982,49 +3018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3157,17 +3157,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3190,41 +3205,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3240,17 +3220,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3262,10 +3262,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3274,133 +3274,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="53" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4091,12 +4091,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="60.775" customWidth="1"/>
+    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:2">
+    <row r="1" ht="72" spans="1:2">
       <c r="A1" s="103"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:2">
+    <row r="9" ht="43.2" spans="1:2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4141,24 +4141,24 @@
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="11.8916666666667" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21.425" style="14" customWidth="1"/>
-    <col min="5" max="5" width="25.8666666666667" style="31" customWidth="1"/>
-    <col min="6" max="6" width="35.2" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.4259259259259" style="14" customWidth="1"/>
+    <col min="5" max="5" width="25.8703703703704" style="31" customWidth="1"/>
+    <col min="6" max="6" width="35.2037037037037" style="31" customWidth="1"/>
     <col min="7" max="7" width="9" style="84"/>
-    <col min="8" max="8" width="9.65833333333333" style="84" customWidth="1"/>
+    <col min="8" max="8" width="9.65740740740741" style="84" customWidth="1"/>
     <col min="9" max="9" width="9" style="84"/>
-    <col min="10" max="10" width="12.5333333333333" style="84" customWidth="1"/>
+    <col min="10" max="10" width="12.537037037037" style="84" customWidth="1"/>
     <col min="11" max="11" width="9" style="84"/>
     <col min="12" max="12" width="13.1666666666667" style="84" customWidth="1"/>
-    <col min="13" max="13" width="10.8833333333333" style="14" customWidth="1"/>
-    <col min="14" max="14" width="17.925" style="84" customWidth="1"/>
-    <col min="15" max="15" width="13.1916666666667" style="14" customWidth="1"/>
-    <col min="16" max="16" width="15.5583333333333" style="85" customWidth="1"/>
-    <col min="17" max="17" width="20.8916666666667" style="86" customWidth="1"/>
+    <col min="13" max="13" width="10.8796296296296" style="14" customWidth="1"/>
+    <col min="14" max="14" width="17.9259259259259" style="84" customWidth="1"/>
+    <col min="15" max="15" width="13.1944444444444" style="14" customWidth="1"/>
+    <col min="16" max="16" width="15.5555555555556" style="85" customWidth="1"/>
+    <col min="17" max="17" width="20.8888888888889" style="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4214,7 +4214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="40.5" spans="1:17">
+    <row r="2" customFormat="1" ht="43.2" spans="1:17">
       <c r="A2" s="90">
         <v>1</v>
       </c>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="Q2" s="102"/>
     </row>
-    <row r="3" customFormat="1" ht="27" spans="1:17">
+    <row r="3" customFormat="1" ht="28.8" spans="1:17">
       <c r="A3" s="90">
         <v>1</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="Q4" s="102"/>
     </row>
-    <row r="5" customFormat="1" ht="27" spans="1:17">
+    <row r="5" customFormat="1" ht="28.8" spans="1:17">
       <c r="A5" s="90">
         <v>3</v>
       </c>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="Q5" s="102"/>
     </row>
-    <row r="6" customFormat="1" ht="40.5" spans="1:17">
+    <row r="6" customFormat="1" ht="43.2" spans="1:17">
       <c r="A6" s="90">
         <v>4</v>
       </c>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="Q9" s="102"/>
     </row>
-    <row r="10" customFormat="1" ht="27" spans="1:17">
+    <row r="10" customFormat="1" ht="28.8" spans="1:17">
       <c r="A10" s="90">
         <v>4</v>
       </c>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="Q14" s="102"/>
     </row>
-    <row r="15" customFormat="1" ht="27" spans="1:17">
+    <row r="15" customFormat="1" ht="28.8" spans="1:17">
       <c r="A15" s="90">
         <v>3</v>
       </c>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="Q15" s="102"/>
     </row>
-    <row r="16" customFormat="1" ht="40.5" spans="1:17">
+    <row r="16" customFormat="1" ht="43.2" spans="1:17">
       <c r="A16" s="90">
         <v>4</v>
       </c>
@@ -5582,14 +5582,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N2:N1048576">
-      <formula1>"正体,衍生"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="I2:I1048576">
       <formula1>"中立,道教,佛教,科学,神道教"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="H2:H1048576">
-      <formula1>"单位,特殊"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J6 J11 J12 J17 J2:J5 J7:J10 J13:J16 J18:J1048576">
       <formula1>"领袖,金,银,铜"</formula1>
@@ -5600,8 +5594,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K2:K1048576">
       <formula1>"水,火,风,土,任意"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="H2:H1048576">
+      <formula1>"单位,特殊"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L2:L1048576">
       <formula1>"我方,敌方"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N2:N1048576">
+      <formula1>"正体,衍生"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5617,32 +5617,32 @@
   </sheetPr>
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+      <selection pane="bottomLeft" activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="8.13333333333333" style="39" customWidth="1"/>
-    <col min="3" max="3" width="25.35" style="38" customWidth="1"/>
-    <col min="4" max="4" width="25.35" style="38" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.45" style="40" customWidth="1"/>
-    <col min="6" max="6" width="34.45" style="38" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="41.4083333333333" style="41" customWidth="1"/>
-    <col min="8" max="8" width="37.5166666666667" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7333333333333" style="40" customWidth="1"/>
-    <col min="10" max="10" width="9.65833333333333" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.12962962962963" style="39" customWidth="1"/>
+    <col min="3" max="3" width="25.3518518518519" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.3518518518519" style="38" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.4537037037037" style="40" customWidth="1"/>
+    <col min="6" max="6" width="34.4537037037037" style="38" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="41.4074074074074" style="41" customWidth="1"/>
+    <col min="8" max="8" width="37.5185185185185" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7314814814815" style="40" customWidth="1"/>
+    <col min="10" max="10" width="9.65740740740741" style="38" customWidth="1"/>
     <col min="11" max="11" width="9" style="42"/>
-    <col min="12" max="12" width="12.5333333333333" style="43" customWidth="1"/>
+    <col min="12" max="12" width="12.537037037037" style="43" customWidth="1"/>
     <col min="13" max="13" width="9" style="38"/>
     <col min="14" max="14" width="13.1666666666667" style="38" customWidth="1"/>
-    <col min="15" max="15" width="10.8833333333333" style="38" customWidth="1"/>
-    <col min="16" max="16" width="17.925" style="38" customWidth="1"/>
-    <col min="17" max="17" width="15.5583333333333" style="44" customWidth="1"/>
-    <col min="18" max="18" width="20.8916666666667" style="45" customWidth="1"/>
+    <col min="15" max="15" width="10.8796296296296" style="38" customWidth="1"/>
+    <col min="16" max="16" width="17.9259259259259" style="38" customWidth="1"/>
+    <col min="17" max="17" width="15.5555555555556" style="44" customWidth="1"/>
+    <col min="18" max="18" width="20.8888888888889" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5721,7 +5721,7 @@
       <c r="Q2" s="70"/>
       <c r="R2" s="71"/>
     </row>
-    <row r="3" ht="27" spans="1:17">
+    <row r="3" ht="43.2" spans="1:17">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:18">
+    <row r="4" ht="57.6" spans="1:18">
       <c r="A4" s="38">
         <v>1</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:17">
+    <row r="6" ht="28.8" spans="1:17">
       <c r="A6" s="38">
         <v>3</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:17">
+    <row r="7" ht="43.2" spans="1:17">
       <c r="A7" s="38">
         <v>4</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="40.5" spans="1:17">
+    <row r="8" ht="43.2" spans="1:17">
       <c r="A8" s="38">
         <v>1</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:17">
+    <row r="9" ht="43.2" spans="1:17">
       <c r="A9" s="38">
         <v>2</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="40.5" spans="1:17">
+    <row r="10" ht="43.2" spans="1:17">
       <c r="A10" s="38">
         <v>3</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:17">
+    <row r="11" ht="28.8" spans="1:17">
       <c r="A11" s="38">
         <v>4</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:17">
+    <row r="14" ht="28.8" spans="1:17">
       <c r="A14" s="38">
         <v>1</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:17">
+    <row r="15" ht="28.8" spans="1:17">
       <c r="A15" s="38">
         <v>2</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:17">
+    <row r="16" ht="28.8" spans="1:17">
       <c r="A16" s="38">
         <v>3</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:17">
+    <row r="17" ht="28.8" spans="1:17">
       <c r="A17" s="38">
         <v>4</v>
       </c>
@@ -6427,7 +6427,7 @@
       <c r="Q19" s="72"/>
       <c r="R19" s="73"/>
     </row>
-    <row r="20" ht="40.5" spans="1:17">
+    <row r="20" ht="43.2" spans="1:17">
       <c r="A20" s="38">
         <v>1</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="27" spans="1:17">
+    <row r="22" ht="28.8" spans="1:17">
       <c r="A22" s="38">
         <v>2</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:17">
+    <row r="25" ht="28.8" spans="1:17">
       <c r="A25" s="38">
         <v>1</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="67.5" spans="1:17">
+    <row r="26" ht="72" spans="1:17">
       <c r="A26" s="38">
         <v>2</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:17">
+    <row r="27" ht="28.8" spans="1:17">
       <c r="A27" s="38">
         <v>3</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="40.5" spans="1:17">
+    <row r="28" ht="43.2" spans="1:17">
       <c r="A28" s="38">
         <v>4</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="27" spans="1:17">
+    <row r="29" ht="28.8" spans="1:17">
       <c r="A29" s="38">
         <v>5</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="27" spans="1:17">
+    <row r="30" ht="28.8" spans="1:17">
       <c r="A30" s="38">
         <v>6</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:17">
+    <row r="34" ht="28.8" spans="1:17">
       <c r="A34" s="38">
         <v>2</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="1:17">
+    <row r="38" ht="28.8" spans="1:17">
       <c r="A38" s="38">
         <v>6</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="27" spans="1:17">
+    <row r="39" ht="28.8" spans="1:17">
       <c r="A39" s="38">
         <v>7</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="54" spans="1:17">
+    <row r="42" ht="57.6" spans="1:17">
       <c r="A42" s="38">
         <v>2</v>
       </c>
@@ -7381,7 +7381,7 @@
       <c r="Q43" s="55"/>
       <c r="R43" s="56"/>
     </row>
-    <row r="44" ht="40.5" spans="1:17">
+    <row r="44" ht="43.2" spans="1:17">
       <c r="A44" s="38">
         <v>1</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:17">
+    <row r="45" ht="28.8" spans="1:17">
       <c r="A45" s="38">
         <v>1</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="27" spans="1:17">
+    <row r="46" ht="28.8" spans="1:17">
       <c r="A46" s="38">
         <v>1</v>
       </c>
@@ -7533,7 +7533,7 @@
       <c r="Q47" s="76"/>
       <c r="R47" s="77"/>
     </row>
-    <row r="48" ht="40.5" spans="1:17">
+    <row r="48" ht="43.2" spans="1:17">
       <c r="A48" s="38">
         <v>1</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="40.5" spans="1:17">
+    <row r="49" ht="43.2" spans="1:17">
       <c r="A49" s="38">
         <v>1</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="27" spans="1:17">
+    <row r="50" ht="28.8" spans="1:17">
       <c r="A50" s="38">
         <v>2</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="27" spans="1:17">
+    <row r="51" ht="28.8" spans="1:17">
       <c r="A51" s="38">
         <v>3</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="54" spans="1:17">
+    <row r="52" ht="72" spans="1:17">
       <c r="A52" s="38">
         <v>4</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="27" spans="1:17">
+    <row r="53" ht="28.8" spans="1:17">
       <c r="A53" s="38">
         <v>1</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="27" spans="1:17">
+    <row r="55" ht="28.8" spans="1:17">
       <c r="A55" s="38">
         <v>3</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="27" spans="1:17">
+    <row r="57" ht="28.8" spans="1:17">
       <c r="A57" s="38">
         <v>5</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="27" spans="1:17">
+    <row r="58" ht="28.8" spans="1:17">
       <c r="A58" s="38">
         <v>6</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="54" spans="1:18">
+    <row r="59" ht="57.6" spans="1:18">
       <c r="A59" s="38">
         <v>1</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" ht="54" spans="1:18">
+    <row r="60" ht="72" spans="1:18">
       <c r="A60" s="38">
         <v>2</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" ht="27" spans="1:17">
+    <row r="61" ht="28.8" spans="1:17">
       <c r="A61" s="38">
         <v>3</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="27" spans="1:17">
+    <row r="62" ht="28.8" spans="1:17">
       <c r="A62" s="38">
         <v>4</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="27" spans="1:17">
+    <row r="63" ht="28.8" spans="1:17">
       <c r="A63" s="38">
         <v>5</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" ht="40.5" spans="1:17">
+    <row r="64" ht="43.2" spans="1:17">
       <c r="A64" s="38">
         <v>6</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>33</v>
       </c>
       <c r="Q66" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="40.5" spans="1:17">
+    <row r="68" ht="43.2" spans="1:17">
       <c r="A68" s="38">
         <v>3</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="27" spans="1:17">
+    <row r="70" ht="28.8" spans="1:17">
       <c r="A70" s="38">
         <v>5</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:17">
+    <row r="71" ht="28.8" spans="1:17">
       <c r="A71" s="38">
         <v>6</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="27" spans="1:17">
+    <row r="72" ht="28.8" spans="1:17">
       <c r="A72" s="38">
         <v>7</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:17">
+    <row r="73" ht="28.8" spans="1:17">
       <c r="A73" s="38">
         <v>8</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="27" spans="1:17">
+    <row r="78" ht="28.8" spans="1:17">
       <c r="A78" s="38">
         <v>13</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="27" spans="1:17">
+    <row r="79" ht="28.8" spans="1:17">
       <c r="A79" s="38">
         <v>14</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="27" spans="1:17">
+    <row r="82" ht="28.8" spans="1:17">
       <c r="A82" s="38">
         <v>17</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="27" spans="1:17">
+    <row r="92" ht="28.8" spans="1:17">
       <c r="A92" s="38">
         <v>2</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="40.5" spans="1:17">
+    <row r="95" ht="43.2" spans="1:17">
       <c r="A95" s="38">
         <v>1</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" ht="54" spans="3:7">
+    <row r="97" ht="57.6" spans="3:7">
       <c r="C97" s="38" t="s">
         <v>254</v>
       </c>
@@ -9029,12 +9029,6 @@
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="Q16 Q17 Q18 Q38 Q39 Q40 Q41 Q42 Q44 Q45 Q46 Q47 Q48 Q49 Q50 Q51 Q52 Q53 Q54 Q55 Q56 Q57 Q58 Q59 Q60 Q61 Q62 Q63 Q64 Q65 Q92 Q3:Q4 Q5:Q8 Q9:Q12 Q13:Q15 Q20:Q26 Q27:Q34 Q35:Q37 Q66:Q91 Q93:Q95 Q126:Q1048576">
       <formula1>IF(TRUE,OR(Q3=0,Q3=1),"Checkbox")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="P31 P32 P38 P39 P40 P41 P42 P44 P45 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P3:P18 P20:P30 P33:P37 P66:P82 P83:P90 P91:P95 P126:P1048576">
-      <formula1>"正体,衍生"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J31 J32 J33 J38 J39 J40 J41 J42 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J78 J79 J80 J81 J82 J3:J18 J20:J30 J34:J37 J65:J71 J72:J73 J74:J77 J83:J90 J91:J95 J126:J1048576">
-      <formula1>"单位,特殊"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L24 L31 L32 L33 L34 L38 L39 L40 L41 L42 L44 L45 L46 L47 L48 L49 L50 L51 L52 L58 L59 L64 L65 L66 L67 L68 L69 L70 L76 L77 L78 L3:L18 L20:L23 L25:L30 L35:L37 L53:L54 L55:L57 L60:L63 L71:L72 L73:L75 L79:L80 L81:L82 L83:L90 L92:L95 L126:L1048576">
       <formula1>"领袖,金,银,铜"</formula1>
     </dataValidation>
@@ -9044,8 +9038,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N18 N31 N32 N38 N39 N40 N41 N42 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N78 N3:N17 N20:N30 N33:N37 N66:N77 N79:N82 N83:N90 N91:N95 N126:N1048576">
       <formula1>"我方,敌方"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J31 J32 J33 J38 J39 J40 J41 J42 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J78 J79 J80 J81 J82 J3:J18 J20:J30 J34:J37 J65:J71 J72:J73 J74:J77 J83:J90 J91:J95 J126:J1048576">
+      <formula1>"单位,特殊"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="M30 M31 M32 M38 M39 M40 M41 M42 M44 M45 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M57 M58 M59 M60 M61 M62 M63 M64 M65 M66 M70 M71 M77 M78 M79 M80 M81 M82 M3:M18 M20:M24 M25:M29 M33:M37 M67:M69 M72:M76 M83:M90 M91:M95 M126:M1048576">
       <formula1>"水,火,风,土,任意"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="P31 P32 P38 P39 P40 P41 P42 P44 P45 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P3:P18 P20:P30 P33:P37 P66:P82 P83:P90 P91:P95 P126:P1048576">
+      <formula1>"正体,衍生"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9058,14 +9058,14 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="16.5583333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.5555555555556" style="14" customWidth="1"/>
     <col min="3" max="3" width="14" style="14" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="14" customWidth="1"/>
     <col min="5" max="6" width="26.5" style="14" customWidth="1"/>
@@ -9102,7 +9102,7 @@
         <v>263</v>
       </c>
       <c r="B2" s="14">
-        <v>1</v>
+        <v>2200001</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>264</v>
@@ -9125,7 +9125,7 @@
         <v>268</v>
       </c>
       <c r="B3" s="14">
-        <v>1</v>
+        <v>2200001</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>269</v>
@@ -9148,7 +9148,7 @@
         <v>271</v>
       </c>
       <c r="B4" s="14">
-        <v>1</v>
+        <v>2200001</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -9171,7 +9171,7 @@
         <v>274</v>
       </c>
       <c r="B5" s="14">
-        <v>1</v>
+        <v>2200001</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>275</v>
@@ -9194,7 +9194,7 @@
         <v>277</v>
       </c>
       <c r="B7" s="14">
-        <v>2</v>
+        <v>2300001</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>278</v>
@@ -9217,7 +9217,7 @@
         <v>283</v>
       </c>
       <c r="B8" s="14">
-        <v>2</v>
+        <v>2300001</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>284</v>
@@ -9240,7 +9240,7 @@
         <v>286</v>
       </c>
       <c r="B9" s="14">
-        <v>2</v>
+        <v>2300001</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>287</v>
@@ -9263,7 +9263,7 @@
         <v>289</v>
       </c>
       <c r="B10" s="14">
-        <v>2</v>
+        <v>2300001</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>290</v>
@@ -9303,12 +9303,12 @@
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.1083333333333" style="14" customWidth="1"/>
+    <col min="1" max="1" width="23.1111111111111" style="14" customWidth="1"/>
     <col min="2" max="3" width="42.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="17.1333333333333" style="14" customWidth="1"/>
-    <col min="5" max="6" width="33.1083333333333" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.1296296296296" style="14" customWidth="1"/>
+    <col min="5" max="6" width="33.1111111111111" style="14" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -9779,7 +9779,7 @@
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" ht="27" spans="1:5">
+    <row r="26" ht="28.8" spans="1:5">
       <c r="A26" s="14" t="s">
         <v>356</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" ht="27" spans="1:5">
+    <row r="28" ht="28.8" spans="1:5">
       <c r="A28" s="14" t="s">
         <v>362</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" ht="28.8" spans="1:5">
       <c r="A30" s="14" t="s">
         <v>368</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" ht="27" spans="1:5">
+    <row r="32" ht="28.8" spans="1:5">
       <c r="A32" s="14" t="s">
         <v>374</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:5">
+    <row r="33" ht="28.8" spans="1:5">
       <c r="A33" s="14" t="s">
         <v>377</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:5">
+    <row r="34" ht="28.8" spans="1:5">
       <c r="A34" s="14" t="s">
         <v>380</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="37" ht="67.5" spans="1:5">
+    <row r="37" ht="72" spans="1:5">
       <c r="A37" s="14" t="s">
         <v>389</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" ht="67.5" spans="1:5">
+    <row r="38" ht="72" spans="1:5">
       <c r="A38" s="14" t="s">
         <v>391</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="40" ht="54" spans="1:5">
+    <row r="40" ht="57.6" spans="1:5">
       <c r="A40" s="14" t="s">
         <v>395</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="1:5">
+    <row r="41" ht="28.8" spans="1:5">
       <c r="A41" s="14" t="s">
         <v>397</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="47" ht="27" spans="1:5">
+    <row r="47" ht="28.8" spans="1:5">
       <c r="A47" s="14" t="s">
         <v>412</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="49" ht="27" spans="1:5">
+    <row r="49" ht="28.8" spans="1:5">
       <c r="A49" s="14" t="s">
         <v>418</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="50" ht="27" spans="1:5">
+    <row r="50" ht="28.8" spans="1:5">
       <c r="A50" s="14" t="s">
         <v>421</v>
       </c>
@@ -10175,7 +10175,7 @@
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
     </row>
-    <row r="57" ht="27" spans="1:5">
+    <row r="57" ht="43.2" spans="1:5">
       <c r="A57" s="14" t="s">
         <v>432</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="58" ht="27" spans="1:5">
+    <row r="58" ht="28.8" spans="1:5">
       <c r="A58" s="14" t="s">
         <v>435</v>
       </c>
@@ -10363,7 +10363,7 @@
       </c>
       <c r="F71" s="35"/>
     </row>
-    <row r="73" ht="27" spans="1:2">
+    <row r="73" ht="28.8" spans="1:2">
       <c r="A73" s="14" t="s">
         <v>450</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="75" ht="27" spans="1:2">
+    <row r="75" ht="28.8" spans="1:2">
       <c r="A75" s="14" t="s">
         <v>452</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" ht="28.8" spans="1:2">
       <c r="A77" s="14" t="s">
         <v>454</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="79" ht="27" spans="1:2">
+    <row r="79" ht="28.8" spans="1:2">
       <c r="A79" s="14" t="s">
         <v>456</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="80" ht="27" spans="1:2">
+    <row r="80" ht="28.8" spans="1:2">
       <c r="A80" s="14" t="s">
         <v>457</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="81" ht="27" spans="1:2">
+    <row r="81" ht="28.8" spans="1:2">
       <c r="A81" s="14" t="s">
         <v>458</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="84" ht="67.5" spans="1:2">
+    <row r="84" ht="72" spans="1:2">
       <c r="A84" s="14" t="s">
         <v>461</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="85" ht="67.5" spans="1:2">
+    <row r="85" ht="72" spans="1:2">
       <c r="A85" s="14" t="s">
         <v>462</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="87" ht="54" spans="1:2">
+    <row r="87" ht="57.6" spans="1:2">
       <c r="A87" s="14" t="s">
         <v>464</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="88" ht="27" spans="1:2">
+    <row r="88" ht="28.8" spans="1:2">
       <c r="A88" s="14" t="s">
         <v>465</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="94" ht="27" spans="1:2">
+    <row r="94" ht="28.8" spans="1:2">
       <c r="A94" s="14" t="s">
         <v>472</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="96" ht="27" spans="1:2">
+    <row r="96" ht="28.8" spans="1:2">
       <c r="A96" s="14" t="s">
         <v>476</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="97" ht="27" spans="1:2">
+    <row r="97" ht="28.8" spans="1:2">
       <c r="A97" s="14" t="s">
         <v>478</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="99" ht="27" spans="1:2">
+    <row r="99" ht="43.2" spans="1:2">
       <c r="A99" s="14" t="s">
         <v>480</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" ht="27" spans="1:2">
+    <row r="100" ht="28.8" spans="1:2">
       <c r="A100" s="14" t="s">
         <v>481</v>
       </c>
@@ -10589,15 +10589,15 @@
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="8.13333333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.12962962962963" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="10.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="5.88333333333333" customWidth="1"/>
-    <col min="6" max="6" width="26.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="3.63333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="5.87962962962963" customWidth="1"/>
+    <col min="6" max="6" width="26.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="3.62962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11281,14 +11281,14 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="8.89166666666667" style="14"/>
-    <col min="4" max="4" width="19.8833333333333" style="14" customWidth="1"/>
+    <col min="1" max="3" width="8.88888888888889" style="14"/>
+    <col min="4" max="4" width="19.8796296296296" style="14" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11309,7 +11309,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:5">
+    <row r="2" ht="43.2" spans="1:5">
       <c r="A2" s="14" t="s">
         <v>487</v>
       </c>
@@ -11413,13 +11413,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="47.6083333333333" customWidth="1"/>
+    <col min="2" max="2" width="47.6111111111111" customWidth="1"/>
     <col min="4" max="4" width="91.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="84.75" customWidth="1"/>
-    <col min="7" max="7" width="50.1166666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.9666666666667" customWidth="1"/>
+    <col min="7" max="7" width="50.1203703703704" customWidth="1"/>
+    <col min="12" max="12" width="18.962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11439,7 +11439,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:5">
+    <row r="2" ht="43.2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:5">
+    <row r="3" ht="28.8" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>552</v>
@@ -11471,7 +11471,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:5">
+    <row r="4" ht="28.8" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
@@ -11484,7 +11484,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:5">
+    <row r="5" ht="28.8" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>558</v>
@@ -11510,7 +11510,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="40.5" spans="1:5">
+    <row r="7" ht="43.2" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -11523,7 +11523,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="8" ht="40.5" spans="1:5">
+    <row r="8" ht="43.2" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>567</v>
       </c>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="27" spans="1:5">
+    <row r="10" ht="28.8" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
@@ -11566,7 +11566,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="11" ht="54" spans="1:5">
+    <row r="11" ht="57.6" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
@@ -11680,7 +11680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" ht="40.5" spans="1:5">
+    <row r="19" ht="43.2" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>601</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:5">
+    <row r="23" ht="28.8" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6" t="s">
@@ -11853,7 +11853,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="55" ht="67.5" spans="1:6">
+    <row r="55" ht="72" spans="1:6">
       <c r="A55" t="s">
         <v>638</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="56" ht="54" spans="3:5">
+    <row r="56" ht="57.6" spans="3:5">
       <c r="C56" s="11" t="s">
         <v>644</v>
       </c>
@@ -11973,22 +11973,22 @@
         <v>666</v>
       </c>
     </row>
-    <row r="78" ht="67.5" spans="2:2">
+    <row r="78" ht="72" spans="2:2">
       <c r="B78" s="11" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="79" ht="27" spans="2:2">
+    <row r="79" ht="28.8" spans="2:2">
       <c r="B79" s="11" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="80" ht="54" spans="2:2">
+    <row r="80" ht="57.6" spans="2:2">
       <c r="B80" s="11" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="81" ht="67.5" spans="2:2">
+    <row r="81" ht="72" spans="2:2">
       <c r="B81" s="11" t="s">
         <v>670</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" ht="175.5" spans="2:2">
+    <row r="87" ht="187.2" spans="2:2">
       <c r="B87" s="11" t="s">
         <v>675</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="111" ht="40.5" spans="1:7">
+    <row r="111" ht="43.2" spans="1:7">
       <c r="A111" s="13" t="s">
         <v>699</v>
       </c>
@@ -12574,7 +12574,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
+++ b/Assets/GameResources/Scene1Resource/GameData/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17130" windowHeight="9150" tabRatio="797" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="17130" windowHeight="9150" tabRatio="797" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="必读！合作条约" sheetId="18" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="786">
   <si>
     <t>代表卡牌信息，分为单人模式卡牌和多人模式卡牌
 卡牌ID的生成方式 模式（单人：1或多人：2+系列（00~99）+位阶（领袖0，金1，银2，铜3）+第几张牌（000~999））
@@ -5734,10 +5734,10 @@
   </sheetPr>
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7478,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="40.5" spans="1:12">
+    <row r="43" ht="40.5" spans="1:17">
       <c r="A43" s="55">
         <v>3</v>
       </c>
@@ -7503,8 +7503,23 @@
       <c r="L43" s="79" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="55">
+        <v>6</v>
+      </c>
+      <c r="P43" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="55">
         <v>1</v>
       </c>
@@ -7528,6 +7543,21 @@
       </c>
       <c r="L44" s="60" t="s">
         <v>49</v>
+      </c>
+      <c r="M44" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="N44" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="55">
+        <v>5</v>
+      </c>
+      <c r="P44" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="61">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:18">
@@ -9195,16 +9225,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="Q16 Q17 Q18 Q38 Q39 Q40 Q41 Q42 Q46 Q47 Q48 Q49 Q50 Q51 Q52 Q53 Q54 Q55 Q56 Q57 Q58 Q59 Q60 Q61 Q62 Q63 Q64 Q65 Q66 Q67 Q94 Q3:Q4 Q5:Q8 Q9:Q12 Q13:Q15 Q20:Q26 Q27:Q34 Q35:Q37 Q68:Q93 Q95:Q97 Q126:Q1048576">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="Q16 Q17 Q18 Q38 Q39 Q40 Q41 Q42 Q43 Q44 Q46 Q47 Q48 Q49 Q50 Q51 Q52 Q53 Q54 Q55 Q56 Q57 Q58 Q59 Q60 Q61 Q62 Q63 Q64 Q65 Q66 Q67 Q94 Q3:Q4 Q5:Q8 Q9:Q12 Q13:Q15 Q20:Q26 Q27:Q34 Q35:Q37 Q68:Q93 Q95:Q97 Q126:Q1048576">
       <formula1>IF(TRUE,OR(Q3=0,Q3=1),"Checkbox")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K18 K31 K32 K38 K39 K40 K41 K42 K43 K44 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K65 K66 K80 K3:K17 K20:K30 K33:K37 K67:K68 K69:K79 K81:K84 K85:K92 K93:K97 K126:K1048576">
       <formula1>"中立,道教,佛教,科学,神道教"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N18 N31 N32 N38 N39 N40 N41 N42 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N80 N3:N17 N20:N30 N33:N37 N68:N79 N81:N84 N85:N92 N93:N97 N126:N1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N18 N31 N32 N38 N39 N40 N41 N42 N43 N44 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N80 N3:N17 N20:N30 N33:N37 N68:N79 N81:N84 N85:N92 N93:N97 N126:N1048576">
       <formula1>"我方,敌方"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="P31 P32 P38 P39 P40 P41 P42 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P66 P67 P3:P18 P20:P30 P33:P37 P68:P84 P85:P92 P93:P97 P126:P1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="P31 P32 P38 P39 P40 P41 P42 P43 P44 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P66 P67 P3:P18 P20:P30 P33:P37 P68:P84 P85:P92 P93:P97 P126:P1048576">
       <formula1>"正体,衍生"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L24 L31 L32 L33 L34 L38 L39 L40 L41 L42 L43 L44 L46 L47 L48 L49 L50 L51 L52 L53 L54 L60 L61 L66 L67 L68 L69 L70 L71 L72 L78 L79 L80 L3:L18 L20:L23 L25:L30 L35:L37 L55:L56 L57:L59 L62:L65 L73:L74 L75:L77 L81:L82 L83:L84 L85:L92 L94:L97 L126:L1048576">
@@ -9213,7 +9243,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J31 J32 J33 J38 J39 J40 J41 J42 J43 J44 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J80 J81 J82 J83 J84 J3:J18 J20:J30 J34:J37 J67:J73 J74:J75 J76:J79 J85:J92 J93:J97 J126:J1048576">
       <formula1>"单位,特殊"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="M30 M31 M32 M38 M39 M40 M41 M42 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M57 M58 M59 M60 M61 M62 M63 M64 M65 M66 M67 M68 M72 M73 M79 M80 M81 M82 M83 M84 M3:M18 M20:M24 M25:M29 M33:M37 M69:M71 M74:M78 M85:M92 M93:M97 M126:M1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="M30 M31 M32 M38 M39 M40 M41 M42 M43 M44 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M57 M58 M59 M60 M61 M62 M63 M64 M65 M66 M67 M68 M72 M73 M79 M80 M81 M82 M83 M84 M3:M18 M20:M24 M25:M29 M33:M37 M69:M71 M74:M78 M85:M92 M93:M97 M126:M1048576">
       <formula1>"水,火,风,土,任意"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9466,8 +9496,8 @@
   </sheetPr>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
